--- a/Dataset/ChEMBL/ALK/ALK_preprocessing/ALK_test.xlsx
+++ b/Dataset/ChEMBL/ALK/ALK_preprocessing/ALK_test.xlsx
@@ -563,12 +563,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>CHEMBL3357457</t>
+          <t>CHEMBL1779197</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>600.14</v>
+        <v>371.44</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -577,7 +577,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>CC(C)S(=O)(=O)c1ccccc1Nc1nc(Nc2cccc(NC(=O)CN3CCN(C4COC4)CC3)c2)ncc1Cl</t>
+          <t>CC1(C)c2cc(N3CCOCC3)ccc2C(=O)c2c1[nH]c1cc(C#N)ccc21</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -596,16 +596,16 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>4.9</v>
+        <v>18.5</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>CHEMBL3364272</t>
+          <t>CHEMBL1781770</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Inhibition of ALK (unknown origin) after 60 mins by ELISA</t>
+          <t>Inhibition of ALK assessed as biotin-EGPWLEEEEEAYGWMDF peptide phosphorylation by TR-FRET assay</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -620,7 +620,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>Homo sapiens</t>
+          <t>None</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -645,7 +645,7 @@
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>CHEMBL3351234</t>
+          <t>CHEMBL1777813</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
@@ -655,18 +655,18 @@
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>J Med Chem</t>
+          <t>Bioorg. Med. Chem. Lett.</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>2015</v>
+        <v>2011</v>
       </c>
       <c r="W2" t="n">
         <v>1</v>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAD2490&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D4553F0&gt;</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
@@ -678,21 +678,21 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>CHEMBL3263980</t>
+          <t>CHEMBL3785299</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="n">
-        <v>522.05</v>
+        <v>615.2</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.03</t>
+          <t>5.08</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CNC(=O)c1ccccc1Nc1nc(Nc2ccc3c(c2)C(C)CN(CC(=O)N(C)C)CC3)ncc1Cl</t>
+          <t>COc1cc2c(cc1Nc1ncc(Cl)c(Nc3ccccc3S(=O)(=O)C(C)C)n1)CCC(NC(=O)CN(C)C)C2(C)C</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -711,16 +711,16 @@
         </is>
       </c>
       <c r="I3" t="n">
-        <v>38</v>
+        <v>3.6</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>CHEMBL3267806</t>
+          <t>CHEMBL3791604</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Inhibition of purified recombinant ALK (unknown origin) after 60 mins by ELISA</t>
+          <t>Inhibition of ALK L1196M mutant (unknown origin) after 30 mins by HTRF assay</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>CHEMBL3259567</t>
+          <t>CHEMBL3784918</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
@@ -770,18 +770,18 @@
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>ACS Med Chem Lett</t>
+          <t>Bioorg. Med. Chem. Lett.</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="W3" t="n">
         <v>1</v>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAD3530&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D455A10&gt;</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
@@ -793,21 +793,21 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CHEMBL1822524</t>
+          <t>CHEMBL3787539</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="n">
-        <v>521.65</v>
+        <v>529.0599999999999</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>5.60</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>COc1cc(N2CCN(C)CC2)ccc1Nc1ncc2ccc(-c3ccccc3N(C)S(C)(=O)=O)n2n1</t>
+          <t>COc1cc2c(cc1Nc1ncc(Cl)c(Nc3ccccc3S(=O)(=O)C(C)C)n1)CCC(=O)C2(C)C</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -826,16 +826,16 @@
         </is>
       </c>
       <c r="I4" t="n">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>CHEMBL1825977</t>
+          <t>CHEMBL3791603</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Inhibition of human recombinant ALK assessed as phosphorylated product using PLC-gamma/GST substrate by modified ELISA method</t>
+          <t>Inhibition of wild type ALK (unknown origin) after 30 mins by HTRF assay</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -875,7 +875,7 @@
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>CHEMBL1821719</t>
+          <t>CHEMBL3784918</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
@@ -885,18 +885,18 @@
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>J Med Chem</t>
+          <t>Bioorg. Med. Chem. Lett.</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>2011</v>
+        <v>2016</v>
       </c>
       <c r="W4" t="n">
         <v>1</v>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAD1E70&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D454510&gt;</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
@@ -908,21 +908,21 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CHEMBL3604631</t>
+          <t>CHEMBL3823603</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>562.14</v>
+        <v>501.96</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>5.10</t>
+          <t>4.96</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Cc1cc(Nc2ncc(Cl)c(Nc3cn(C)nc3S(=O)(=O)C(C)C)n2)c(OC(C)C)cc1C1CCNCC1</t>
+          <t>COc1cc(OC2CCN(C)C2)ccc1Nc1ncc(Cl)c(Nc2ccccc2P(C)(C)=O)n1</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -941,16 +941,16 @@
         </is>
       </c>
       <c r="I5" t="n">
-        <v>20</v>
+        <v>0.33</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>CHEMBL3607641</t>
+          <t>CHEMBL3824709</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Inhibition of ALK L1196M mutant (unknown origin) using TK substrate-biotin incubated for 30 mins by HTRF assay</t>
+          <t>Inhibition of human ALK using poly[Glu:Tyr] (4:1) as substrate and [gamma-33P]ATP measured after 1 hr</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -990,7 +990,7 @@
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>CHEMBL3603807</t>
+          <t>CHEMBL3822358</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
@@ -1000,18 +1000,18 @@
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>Bioorg Med Chem Lett</t>
+          <t>J. Med. Chem.</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="W5" t="n">
         <v>1</v>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAD3680&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D4577D0&gt;</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
@@ -1023,21 +1023,21 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CHEMBL3786148</t>
+          <t>CHEMBL3822973</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
-        <v>493.02</v>
+        <v>432.93</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>4.88</t>
+          <t>4.81</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Cc1cc(Nc2ncc(Cl)c(Nc3cn(C)nc3C#N)n2)c(OC2CC2)cc1C1CCN(C)CC1</t>
+          <t>COc1ccccc1Nc1ncc(Cl)c(Nc2ccccc2S(=O)(=O)C(C)C)n1</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -1056,16 +1056,16 @@
         </is>
       </c>
       <c r="I6" t="n">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>CHEMBL3791910</t>
+          <t>CHEMBL3824709</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Inhibition of recombinant human wild type ALK using tyrosine kinase substrate-biotin after 30 mins by HTRF assay</t>
+          <t>Inhibition of human ALK using poly[Glu:Tyr] (4:1) as substrate and [gamma-33P]ATP measured after 1 hr</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -1105,7 +1105,7 @@
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>CHEMBL3785058</t>
+          <t>CHEMBL3822358</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
@@ -1115,7 +1115,7 @@
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>Bioorg Med Chem Lett</t>
+          <t>J. Med. Chem.</t>
         </is>
       </c>
       <c r="V6" t="n">
@@ -1126,7 +1126,7 @@
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAD25E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D454F90&gt;</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
@@ -1138,21 +1138,21 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>CHEMBL3986775</t>
+          <t>CHEMBL3263980</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="n">
-        <v>444.49</v>
+        <v>522.05</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>4.29</t>
+          <t>4.03</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>CN1CCC(Oc2cc3c(cc2[N+](=O)[O-])C(=O)c2c([nH]c4cc(C#N)ccc24)C3(C)C)CC1</t>
+          <t>CNC(=O)c1ccccc1Nc1nc(Nc2ccc3c(c2)C(C)CN(CC(=O)N(C)C)CC3)ncc1Cl</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -1171,16 +1171,16 @@
         </is>
       </c>
       <c r="I7" t="n">
-        <v>0.991</v>
+        <v>38</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>CHEMBL3887074</t>
+          <t>CHEMBL3267806</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Inhibition Assay: ALK-inhibiting activity was measured by following an activity of inhibiting phosphorylation by biotinylated peptide (EGPWLEEEEEAYGWMDF). For the detection of phosphorylation of the biotinylated peptide, time-resolved fluorescence measurement was performed using an anti-phosphorylated tyrosine antibody labeled with europium cryptate and streptavidin conjugated to XL665, i.e., an allophycocyanin derivative.</t>
+          <t>Inhibition of purified recombinant ALK (unknown origin) after 60 mins by ELISA</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -1220,24 +1220,28 @@
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>CHEMBL3886150</t>
+          <t>CHEMBL3259567</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>BindingDB Database</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr"/>
+          <t>Scientific Literature</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>ACS Med. Chem. Lett.</t>
+        </is>
+      </c>
       <c r="V7" t="n">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="W7" t="n">
         <v>1</v>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAD2650&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D454120&gt;</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
@@ -1249,21 +1253,21 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>CHEMBL1823220</t>
+          <t>CHEMBL3735650</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="n">
-        <v>450.54</v>
+        <v>481.6</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>3.41</t>
+          <t>3.34</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>C#Cc1cc2c(cc1N1CCN(C3COC3)CC1)C(C)(C)c1[nH]c3cc(C#N)ccc3c1C2=O</t>
+          <t>CCc1cc2c(cc1N1CCN(C(=O)C3CNC3)CC1)C(C)(C)c1[nH]c3cc(C#N)ccc3c1C2=O</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1282,16 +1286,16 @@
         </is>
       </c>
       <c r="I8" t="n">
-        <v>2.7</v>
+        <v>4.1</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>CHEMBL1828297</t>
+          <t>CHEMBL3738494</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Inhibition of ALK activity by TR-FRET assay</t>
+          <t>Inhibition of gatekeeper ALK L1196M mutant (unknown origin) using poly (Glu, Tyr)4:1 substrate incubated for 60 mins by ELISA</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -1306,7 +1310,7 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Homo sapiens</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -1331,7 +1335,7 @@
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>CHEMBL1821705</t>
+          <t>CHEMBL3734710</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
@@ -1341,18 +1345,18 @@
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>J Med Chem</t>
+          <t>Eur. J. Med. Chem.</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>2011</v>
+        <v>2015</v>
       </c>
       <c r="W8" t="n">
         <v>1</v>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAD33E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D4552A0&gt;</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
@@ -1364,21 +1368,21 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>CHEMBL3823872</t>
+          <t>CHEMBL3357454</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="n">
-        <v>558.02</v>
+        <v>573.12</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>3.74</t>
+          <t>4.85</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>CNC(=O)CN1CCN(c2ccc(Nc3ncc(Cl)c(Nc4ccccc4P(C)(C)=O)n3)c(OC)c2)CC1</t>
+          <t>CC(C)S(=O)(=O)c1ccccc1Nc1nc(Nc2cccc(NC(=O)CN3C[C@@H](C)O[C@@H](C)C3)c2)ncc1Cl</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1397,16 +1401,16 @@
         </is>
       </c>
       <c r="I9" t="n">
-        <v>3.1</v>
+        <v>25.5</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>CHEMBL3824709</t>
+          <t>CHEMBL3364272</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Inhibition of human ALK using poly[Glu:Tyr] (4:1) as substrate and [gamma-33P]ATP measured after 1 hr</t>
+          <t>Inhibition of ALK (unknown origin) after 60 mins by ELISA</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -1446,7 +1450,7 @@
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>CHEMBL3822358</t>
+          <t>CHEMBL3351234</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
@@ -1456,18 +1460,18 @@
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>J Med Chem</t>
+          <t>J. Med. Chem.</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="W9" t="n">
         <v>1</v>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAD05F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D454CF0&gt;</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
@@ -1479,21 +1483,21 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>CHEMBL3357458</t>
+          <t>CHEMBL3357464</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>655.22</v>
+        <v>570.12</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>3.89</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>CC(C)S(=O)(=O)c1ccccc1Nc1nc(Nc2cccc(NC(=O)CN3CCN(C(=O)/C=C/CN(C)C)CC3)c2)ncc1Cl</t>
+          <t>CC(C)S(=O)(=O)c1ccccc1Nc1nc(Nc2cccc(NC(=O)CN3CC4CNCC4C3)c2)ncc1Cl</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1512,7 +1516,7 @@
         </is>
       </c>
       <c r="I10" t="n">
-        <v>0.7</v>
+        <v>5.5</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1571,7 +1575,7 @@
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>J Med Chem</t>
+          <t>J. Med. Chem.</t>
         </is>
       </c>
       <c r="V10" t="n">
@@ -1582,7 +1586,7 @@
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAD3CA0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D456FF0&gt;</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
@@ -1594,21 +1598,21 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>CHEMBL2418763</t>
+          <t>CHEMBL3651830</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="n">
-        <v>390.4</v>
+        <v>670.2</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>4.15</t>
+          <t>7.00</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Cn1cc(-c2cnc3[nH]cc(-c4cnn(Cc5cc(F)cc(F)c5)c4)c3c2)cn1</t>
+          <t>Cc1cc(Nc2ncc(Cl)c(Nc3ccccc3S(=O)(=O)C(C)C)n2)c(OC(C)C)cc1C1CCN(C[C@H](O)C(F)(F)F)CC1</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1627,16 +1631,16 @@
         </is>
       </c>
       <c r="I11" t="n">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>CHEMBL2423640</t>
+          <t>CHEMBL3705165</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Inhibition of human ALK L1196M mutant after 30 mins by TR-FRET assay</t>
+          <t>Enzyme Assay: The inhibition of ALK tyrosine kinase activity may be demonstrated using known methods, for example using the recombinant kinase domain of the ALK in analogy to the VEGF-R kinase assay described in J. Wood et al. Cancer Res. 60, 2178-2189 (2000).</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1676,19 +1680,15 @@
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>CHEMBL2417505</t>
+          <t>CHEMBL3638924</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>Scientific Literature</t>
-        </is>
-      </c>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>Bioorg Med Chem Lett</t>
-        </is>
-      </c>
+          <t>BindingDB Database</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr"/>
       <c r="V11" t="n">
         <v>2013</v>
       </c>
@@ -1697,7 +1697,7 @@
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAE09E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D457060&gt;</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
@@ -1709,21 +1709,21 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>CHEMBL3902089</t>
+          <t>CHEMBL3983337</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="n">
-        <v>681.24</v>
+        <v>498.63</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>4.61</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>COc1cc(N2CCN(S(C)(=O)=O)CC2)ccc1Nc1ncc(Cl)c(Nc2ccc(N3CCN(S(C)(=O)=O)CC3)cc2OC)n1</t>
+          <t>CCOc1cc2c(cc1N1CCC(N3CCOCC3)CC1)C(C)(C)c1[nH]c3cc(C#N)ccc3c1C2=O</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1742,16 +1742,16 @@
         </is>
       </c>
       <c r="I12" t="n">
-        <v>64</v>
+        <v>2.2</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>CHEMBL3887133</t>
+          <t>CHEMBL3887074</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Homogeneous Time-resolved fluorescence (HTRF) Assay: In order to measure the inhibitory activity against ALK, a Grainer 96-well round type bottom plate was added with the compounds (2 μl) prepared in Examples 1 to 89, and mixed with ALK enzyme (1 ul) and a peptide substrate (2 μl) with biotin attached thereto for 15 minutes and cultured thereafter. Here, ATP solution (5 μl) was added thereto and kinase reaction was performed at room temperature for 30 minutes. XL 665 (5 μl), to which Streptavidin dissolved in ethylenediaminetetraacetic acid solution was attached, anti-phosphotyrosine antibody (5 μl), to which europium (Eu3+) was attached, were added to a reaction solution to stop the reaction, cultured for 1 hour, and analyzed using Homogeneous Time-resolved fluorescence (HTRF, Cisbio). The result was read by a Wallac Envision 2103 device at the wavelength range of 615/665 nm.</t>
+          <t>Inhibition Assay: ALK-inhibiting activity was measured by following an activity of inhibiting phosphorylation by biotinylated peptide (EGPWLEEEEEAYGWMDF). For the detection of phosphorylation of the biotinylated peptide, time-resolved fluorescence measurement was performed using an anti-phosphorylated tyrosine antibody labeled with europium cryptate and streptavidin conjugated to XL665, i.e., an allophycocyanin derivative.</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1766,7 +1766,7 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Homo sapiens</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -1791,7 +1791,7 @@
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>CHEMBL3886178</t>
+          <t>CHEMBL3886150</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
@@ -1808,7 +1808,7 @@
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAE0CF0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D4574C0&gt;</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
@@ -1820,21 +1820,21 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>CHEMBL1796247</t>
+          <t>CHEMBL4092174</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="n">
-        <v>541.02</v>
+        <v>543.09</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>4.32</t>
+          <t>4.31</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>COCCN1CCc2ccc(Nc3ncc(Cl)c(N[C@@H]4CCCC[C@H]4NC(=O)C(F)(F)F)n3)cc2CC1</t>
+          <t>COc1cc2c(cc1Nc1ncc(Cl)c(Nc3ccccc3S(=O)(=O)C(C)C)n1)CCN1CCNCC21</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1853,16 +1853,16 @@
         </is>
       </c>
       <c r="I13" t="n">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>CHEMBL1798383</t>
+          <t>CHEMBL4017791</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Inhibition of ALK</t>
+          <t>Inhibition of wild type ALK (unknown origin) using TK as substrate after 30 mins by HTRF assay</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1877,7 +1877,7 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Homo sapiens</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -1902,7 +1902,7 @@
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>CHEMBL1795227</t>
+          <t>CHEMBL4017457</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
@@ -1916,14 +1916,14 @@
         </is>
       </c>
       <c r="V13" t="n">
-        <v>2011</v>
+        <v>2017</v>
       </c>
       <c r="W13" t="n">
         <v>1</v>
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAE0970&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D456650&gt;</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
@@ -1935,21 +1935,21 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>CHEMBL3823235</t>
+          <t>CHEMBL3939751</t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="n">
-        <v>531</v>
+        <v>470.62</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>3.99</t>
+          <t>4.41</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>COc1cc(N2CCN(CCO)CC2)ccc1Nc1ncc(Cl)c(Nc2ccccc2P(C)(C)=O)n1</t>
+          <t>CCc1cc2c(cc1N1CCC(NCCCO)CC1)C(C)(C)c1[nH]c3cc(C#N)ccc3c1C2=O</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1968,16 +1968,16 @@
         </is>
       </c>
       <c r="I14" t="n">
-        <v>0.18</v>
+        <v>0.6</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>CHEMBL3824709</t>
+          <t>CHEMBL3887074</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Inhibition of human ALK using poly[Glu:Tyr] (4:1) as substrate and [gamma-33P]ATP measured after 1 hr</t>
+          <t>Inhibition Assay: ALK-inhibiting activity was measured by following an activity of inhibiting phosphorylation by biotinylated peptide (EGPWLEEEEEAYGWMDF). For the detection of phosphorylation of the biotinylated peptide, time-resolved fluorescence measurement was performed using an anti-phosphorylated tyrosine antibody labeled with europium cryptate and streptavidin conjugated to XL665, i.e., an allophycocyanin derivative.</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -2017,28 +2017,24 @@
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>CHEMBL3822358</t>
+          <t>CHEMBL3886150</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>Scientific Literature</t>
-        </is>
-      </c>
-      <c r="U14" t="inlineStr">
-        <is>
-          <t>J Med Chem</t>
-        </is>
-      </c>
+          <t>BindingDB Database</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr"/>
       <c r="V14" t="n">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="W14" t="n">
         <v>1</v>
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAE0660&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D455FC0&gt;</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
@@ -2050,21 +2046,21 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>CHEMBL3822475</t>
+          <t>CHEMBL3604652</t>
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="n">
-        <v>586.16</v>
+        <v>548.11</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>4.25</t>
+          <t>4.49</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>COc1cc(N2CCC(N3CCN(C)CC3)CC2)ccc1Nc1ncc(Cl)c(Nc2ccccc2S(C)(=O)=O)n1</t>
+          <t>Cc1cc(Nc2ncc(Cl)c(Nc3cn(C)nc3S(=O)(=O)C(C)C)n2)c(OC2CC2)cc1CCN(C)C</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -2083,16 +2079,16 @@
         </is>
       </c>
       <c r="I15" t="n">
-        <v>0.59</v>
+        <v>2</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>CHEMBL3824709</t>
+          <t>CHEMBL3607640</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Inhibition of human ALK using poly[Glu:Tyr] (4:1) as substrate and [gamma-33P]ATP measured after 1 hr</t>
+          <t>Inhibition of wild type human recombinant ALK using TK substrate-biotin incubated for 30 mins by HTRF assay</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -2132,7 +2128,7 @@
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>CHEMBL3822358</t>
+          <t>CHEMBL3603807</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
@@ -2142,18 +2138,18 @@
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>J Med Chem</t>
+          <t>Bioorg. Med. Chem. Lett.</t>
         </is>
       </c>
       <c r="V15" t="n">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="W15" t="n">
         <v>1</v>
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAE05F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D457F40&gt;</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
@@ -2165,21 +2161,21 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>CHEMBL3398169</t>
+          <t>CHEMBL3822475</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="n">
-        <v>461.52</v>
+        <v>586.16</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>4.25</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>COc1cc([C@@]2(O)CCNC[C@@H]2O)ccc1Nc1ncc2ccc(-c3ccccc3OC)n2n1</t>
+          <t>COc1cc(N2CCC(N3CCN(C)CC3)CC2)ccc1Nc1ncc(Cl)c(Nc2ccccc2S(C)(=O)=O)n1</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -2198,16 +2194,16 @@
         </is>
       </c>
       <c r="I16" t="n">
-        <v>40</v>
+        <v>0.59</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>CHEMBL3398706</t>
+          <t>CHEMBL3824709</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Inhibition of ALK (unknown origin) by cellular assay</t>
+          <t>Inhibition of human ALK using poly[Glu:Tyr] (4:1) as substrate and [gamma-33P]ATP measured after 1 hr</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -2247,7 +2243,7 @@
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>CHEMBL3396997</t>
+          <t>CHEMBL3822358</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
@@ -2257,18 +2253,18 @@
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>Bioorg Med Chem Lett</t>
+          <t>J. Med. Chem.</t>
         </is>
       </c>
       <c r="V16" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="W16" t="n">
         <v>1</v>
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAE0120&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D457680&gt;</t>
         </is>
       </c>
       <c r="Y16" t="inlineStr">
@@ -2280,21 +2276,21 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CHEMBL3357446</t>
+          <t>CHEMBL1823220</t>
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="n">
-        <v>501.01</v>
+        <v>450.54</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>4.23</t>
+          <t>3.41</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>CC(C)S(=O)(=O)c1ccccc1Nc1nc(Nc2cccc(NC(=O)C3(N)CC3)c2)ncc1Cl</t>
+          <t>C#Cc1cc2c(cc1N1CCN(C3COC3)CC1)C(C)(C)c1[nH]c3cc(C#N)ccc3c1C2=O</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -2313,16 +2309,16 @@
         </is>
       </c>
       <c r="I17" t="n">
-        <v>50.8</v>
+        <v>2.7</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>CHEMBL3364272</t>
+          <t>CHEMBL1828297</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Inhibition of ALK (unknown origin) after 60 mins by ELISA</t>
+          <t>Inhibition of ALK activity by TR-FRET assay</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -2337,7 +2333,7 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>Homo sapiens</t>
+          <t>None</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -2362,7 +2358,7 @@
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>CHEMBL3351234</t>
+          <t>CHEMBL1821705</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
@@ -2372,18 +2368,18 @@
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>J Med Chem</t>
+          <t>J. Med. Chem.</t>
         </is>
       </c>
       <c r="V17" t="n">
-        <v>2015</v>
+        <v>2011</v>
       </c>
       <c r="W17" t="n">
         <v>1</v>
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAE3F40&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D455540&gt;</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
@@ -2395,21 +2391,21 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CHEMBL3972824</t>
+          <t>CHEMBL3823107</t>
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="n">
-        <v>440.55</v>
+        <v>515</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>4.82</t>
+          <t>5.01</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>CCNC(=O)N1CCC(c2ccc3c(c2)C(C)(C)c2[nH]c4cc(C#N)ccc4c2C3=O)CC1</t>
+          <t>COc1cc(N2CC[C@@H](N(C)C)C2)ccc1Nc1ncc(Cl)c(Nc2ccccc2P(C)(C)=O)n1</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -2428,16 +2424,16 @@
         </is>
       </c>
       <c r="I18" t="n">
-        <v>2.001</v>
+        <v>0.33</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>CHEMBL3887074</t>
+          <t>CHEMBL3824709</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Inhibition Assay: ALK-inhibiting activity was measured by following an activity of inhibiting phosphorylation by biotinylated peptide (EGPWLEEEEEAYGWMDF). For the detection of phosphorylation of the biotinylated peptide, time-resolved fluorescence measurement was performed using an anti-phosphorylated tyrosine antibody labeled with europium cryptate and streptavidin conjugated to XL665, i.e., an allophycocyanin derivative.</t>
+          <t>Inhibition of human ALK using poly[Glu:Tyr] (4:1) as substrate and [gamma-33P]ATP measured after 1 hr</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -2477,24 +2473,28 @@
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>CHEMBL3886150</t>
+          <t>CHEMBL3822358</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>BindingDB Database</t>
-        </is>
-      </c>
-      <c r="U18" t="inlineStr"/>
+          <t>Scientific Literature</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>J. Med. Chem.</t>
+        </is>
+      </c>
       <c r="V18" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="W18" t="n">
         <v>1</v>
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAE2110&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D4555B0&gt;</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
@@ -2506,21 +2506,21 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>CHEMBL3986700</t>
+          <t>CHEMBL3823416</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="n">
-        <v>483.62</v>
+        <v>487.93</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>3.68</t>
+          <t>4.71</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>CCc1cc2c(cc1N1CCN(C(=O)CN(C)C)CC1)C(C)(C)c1[nH]c3cc(C#N)ccc3c1C2=O</t>
+          <t>COc1cc(N2CCOCC2)ccc1Nc1ncc(Cl)c(Nc2ccccc2P(C)(C)=O)n1</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -2539,16 +2539,16 @@
         </is>
       </c>
       <c r="I19" t="n">
-        <v>0.4</v>
+        <v>0.24</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>CHEMBL3887074</t>
+          <t>CHEMBL3824709</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Inhibition Assay: ALK-inhibiting activity was measured by following an activity of inhibiting phosphorylation by biotinylated peptide (EGPWLEEEEEAYGWMDF). For the detection of phosphorylation of the biotinylated peptide, time-resolved fluorescence measurement was performed using an anti-phosphorylated tyrosine antibody labeled with europium cryptate and streptavidin conjugated to XL665, i.e., an allophycocyanin derivative.</t>
+          <t>Inhibition of human ALK using poly[Glu:Tyr] (4:1) as substrate and [gamma-33P]ATP measured after 1 hr</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -2588,24 +2588,28 @@
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>CHEMBL3886150</t>
+          <t>CHEMBL3822358</t>
         </is>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>BindingDB Database</t>
-        </is>
-      </c>
-      <c r="U19" t="inlineStr"/>
+          <t>Scientific Literature</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>J. Med. Chem.</t>
+        </is>
+      </c>
       <c r="V19" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="W19" t="n">
         <v>1</v>
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAE3D80&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D456810&gt;</t>
         </is>
       </c>
       <c r="Y19" t="inlineStr">
@@ -2617,21 +2621,21 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>CHEMBL3263972</t>
+          <t>CHEMBL1796244</t>
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="n">
-        <v>493.06</v>
+        <v>493.08</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>5.74</t>
+          <t>3.57</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>CCCCC1CN(C)CCc2ccc(Nc3ncc(Cl)c(Nc4ccccc4C(=O)NC)n3)cc21</t>
+          <t>CCN1CCc2ccc(Nc3ncc(Cl)c(N[C@@H]4CCCC[C@H]4NS(C)(=O)=O)n3)cc2CC1</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -2650,16 +2654,16 @@
         </is>
       </c>
       <c r="I20" t="n">
-        <v>7.7</v>
+        <v>9</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>CHEMBL3267806</t>
+          <t>CHEMBL1798383</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Inhibition of purified recombinant ALK (unknown origin) after 60 mins by ELISA</t>
+          <t>Inhibition of ALK</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -2674,7 +2678,7 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>Homo sapiens</t>
+          <t>None</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
@@ -2699,7 +2703,7 @@
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>CHEMBL3259567</t>
+          <t>CHEMBL1795227</t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
@@ -2709,18 +2713,18 @@
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>ACS Med Chem Lett</t>
+          <t>Bioorg. Med. Chem. Lett.</t>
         </is>
       </c>
       <c r="V20" t="n">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="W20" t="n">
         <v>1</v>
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAE3060&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D456B20&gt;</t>
         </is>
       </c>
       <c r="Y20" t="inlineStr">
@@ -2732,21 +2736,21 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>CHEMBL3822664</t>
+          <t>CHEMBL3982727</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="n">
-        <v>633.97</v>
+        <v>653.58</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>5.45</t>
+          <t>4.08</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>COc1cc(N2CCC(N3CCN(C)CC3)CC2)ccc1Nc1ncc(Cl)c(Nc2ccccc2I)n1</t>
+          <t>COc1cc(N2CCN(C(C)=O)CC2)ccc1Nc1ncc(Br)c(Nc2ccc(N3CCN(C(C)=O)CC3)cc2OC)n1</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -2765,16 +2769,16 @@
         </is>
       </c>
       <c r="I21" t="n">
-        <v>1.36</v>
+        <v>11</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>CHEMBL3824709</t>
+          <t>CHEMBL3887132</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Inhibition of human ALK using poly[Glu:Tyr] (4:1) as substrate and [gamma-33P]ATP measured after 1 hr</t>
+          <t>Homogeneous Time-resolved fluorescence (HTRF) Assay: In order to measure the inhibitory activity against ALK, a Grainer 96-well round type bottom plate was added with the compounds (2 μl) prepared in Examples 1 to 89, and mixed with ALK enzyme (1 ul) and a peptide substrate (2 μl) with biotin attached thereto for 15 minutes and cultured thereafter. Here, ATP solution (5 μl) was added thereto and kinase reaction was performed at room temperature for 30 minutes. XL 665 (5 μl), to which Streptavidin dissolved in ethylenediaminetetraacetic acid solution was attached, anti-phosphotyrosine antibody (5 μl), to which europium (Eu3+) was attached, were added to a reaction solution to stop the reaction, cultured for 1 hour, and analyzed using Homogeneous Time-resolved fluorescence (HTRF, Cisbio). The result was read by a Wallac Envision 2103 device at the wavelength range of 615/665 nm.</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -2814,28 +2818,24 @@
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>CHEMBL3822358</t>
+          <t>CHEMBL3886178</t>
         </is>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>Scientific Literature</t>
-        </is>
-      </c>
-      <c r="U21" t="inlineStr">
-        <is>
-          <t>J Med Chem</t>
-        </is>
-      </c>
+          <t>BindingDB Database</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr"/>
       <c r="V21" t="n">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="W21" t="n">
         <v>1</v>
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAE36F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D456570&gt;</t>
         </is>
       </c>
       <c r="Y21" t="inlineStr">
@@ -2847,21 +2847,21 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>CHEMBL3936470</t>
+          <t>CHEMBL3604639</t>
         </is>
       </c>
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="n">
-        <v>433.53</v>
+        <v>586.08</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>3.53</t>
+          <t>5.67</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>CC1(C)c2cc(N3CCC(S(C)(=O)=O)C3)ccc2C(=O)c2c1[nH]c1cc(C#N)ccc21</t>
+          <t>Cc1cc(Nc2ncc(Cl)c(Nc3cn(C)nc3S(=O)(=O)C(C)C)n2)c(C(F)(F)F)cc1C1CCN(C)CC1</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -2880,16 +2880,16 @@
         </is>
       </c>
       <c r="I22" t="n">
-        <v>16.23</v>
+        <v>22</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>CHEMBL3887074</t>
+          <t>CHEMBL3607640</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Inhibition Assay: ALK-inhibiting activity was measured by following an activity of inhibiting phosphorylation by biotinylated peptide (EGPWLEEEEEAYGWMDF). For the detection of phosphorylation of the biotinylated peptide, time-resolved fluorescence measurement was performed using an anti-phosphorylated tyrosine antibody labeled with europium cryptate and streptavidin conjugated to XL665, i.e., an allophycocyanin derivative.</t>
+          <t>Inhibition of wild type human recombinant ALK using TK substrate-biotin incubated for 30 mins by HTRF assay</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -2929,15 +2929,19 @@
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>CHEMBL3886150</t>
+          <t>CHEMBL3603807</t>
         </is>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>BindingDB Database</t>
-        </is>
-      </c>
-      <c r="U22" t="inlineStr"/>
+          <t>Scientific Literature</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>Bioorg. Med. Chem. Lett.</t>
+        </is>
+      </c>
       <c r="V22" t="n">
         <v>2015</v>
       </c>
@@ -2946,7 +2950,7 @@
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAE3220&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D455770&gt;</t>
         </is>
       </c>
       <c r="Y22" t="inlineStr">
@@ -2958,21 +2962,21 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>CHEMBL3906824</t>
+          <t>CHEMBL3263972</t>
         </is>
       </c>
       <c r="B23" t="inlineStr"/>
       <c r="C23" t="n">
-        <v>621.72</v>
+        <v>493.06</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>3.64</t>
+          <t>5.74</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>CCNC(=O)N1CCN(c2ccc(Nc3nc(Nc4ccc(N5CCN(C(C)=O)CC5)cc4OC)ncc3F)c(OC)c2)CC1</t>
+          <t>CCCCC1CN(C)CCc2ccc(Nc3ncc(Cl)c(Nc4ccccc4C(=O)NC)n3)cc21</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -2991,16 +2995,16 @@
         </is>
       </c>
       <c r="I23" t="n">
-        <v>31</v>
+        <v>7.7</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>CHEMBL3887132</t>
+          <t>CHEMBL3267806</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Homogeneous Time-resolved fluorescence (HTRF) Assay: In order to measure the inhibitory activity against ALK, a Grainer 96-well round type bottom plate was added with the compounds (2 μl) prepared in Examples 1 to 89, and mixed with ALK enzyme (1 ul) and a peptide substrate (2 μl) with biotin attached thereto for 15 minutes and cultured thereafter. Here, ATP solution (5 μl) was added thereto and kinase reaction was performed at room temperature for 30 minutes. XL 665 (5 μl), to which Streptavidin dissolved in ethylenediaminetetraacetic acid solution was attached, anti-phosphotyrosine antibody (5 μl), to which europium (Eu3+) was attached, were added to a reaction solution to stop the reaction, cultured for 1 hour, and analyzed using Homogeneous Time-resolved fluorescence (HTRF, Cisbio). The result was read by a Wallac Envision 2103 device at the wavelength range of 615/665 nm.</t>
+          <t>Inhibition of purified recombinant ALK (unknown origin) after 60 mins by ELISA</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -3040,24 +3044,28 @@
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>CHEMBL3886178</t>
+          <t>CHEMBL3259567</t>
         </is>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>BindingDB Database</t>
-        </is>
-      </c>
-      <c r="U23" t="inlineStr"/>
+          <t>Scientific Literature</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>ACS Med. Chem. Lett.</t>
+        </is>
+      </c>
       <c r="V23" t="n">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="W23" t="n">
         <v>1</v>
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAE31B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D456340&gt;</t>
         </is>
       </c>
       <c r="Y23" t="inlineStr">
@@ -3069,21 +3077,21 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>CHEMBL3824246</t>
+          <t>CHEMBL1779202</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
       <c r="C24" t="n">
-        <v>551.1</v>
+        <v>425.53</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>3.94</t>
+          <t>4.49</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>COc1cc(N2CCC(N3CCN(C)CC3)CC2)ccc1Nc1ncc(Cl)c(Nc2ccccc2C(N)=O)n1</t>
+          <t>CC1(C)c2cc(C3CCN(C4COC4)CC3)ccc2C(=O)c2c1[nH]c1cc(C#N)ccc21</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -3102,16 +3110,16 @@
         </is>
       </c>
       <c r="I24" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>CHEMBL3824709</t>
+          <t>CHEMBL4378233</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Inhibition of human ALK using poly[Glu:Tyr] (4:1) as substrate and [gamma-33P]ATP measured after 1 hr</t>
+          <t>Inhibition of ALK (unknown origin)</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -3151,7 +3159,7 @@
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>CHEMBL3822358</t>
+          <t>CHEMBL4376817</t>
         </is>
       </c>
       <c r="T24" t="inlineStr">
@@ -3165,14 +3173,14 @@
         </is>
       </c>
       <c r="V24" t="n">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="W24" t="n">
         <v>1</v>
       </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAE12A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D455F50&gt;</t>
         </is>
       </c>
       <c r="Y24" t="inlineStr">
@@ -3184,21 +3192,21 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>CHEMBL3734938</t>
+          <t>CHEMBL3787658</t>
         </is>
       </c>
       <c r="B25" t="inlineStr"/>
       <c r="C25" t="n">
-        <v>511.63</v>
+        <v>685.29</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>3.11</t>
+          <t>5.57</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>CCc1cc2c(cc1N1CCN(C(=O)C3COCCN3)CC1)C(C)(C)c1[nH]c3cc(C#N)ccc3c1C2=O</t>
+          <t>CC(=O)N1CCN([C@H]2CC[C@H](c3cc(OC4CC4)c(Nc4ncc(Cl)c(Nc5cn(C)nc5S(=O)(=O)C(C)C)n4)cc3C)CC2)CC1</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -3217,16 +3225,16 @@
         </is>
       </c>
       <c r="I25" t="n">
-        <v>0.8</v>
+        <v>7</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>CHEMBL3738493</t>
+          <t>CHEMBL3791910</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Inhibition of recombinant ALK (unknown origin) using poly (Glu, Tyr)4:1 substrate incubated for 60 mins by ELISA</t>
+          <t>Inhibition of recombinant human wild type ALK using tyrosine kinase substrate-biotin after 30 mins by HTRF assay</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -3266,7 +3274,7 @@
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>CHEMBL3734710</t>
+          <t>CHEMBL3785058</t>
         </is>
       </c>
       <c r="T25" t="inlineStr">
@@ -3276,18 +3284,18 @@
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>Eur J Med Chem</t>
+          <t>Bioorg. Med. Chem. Lett.</t>
         </is>
       </c>
       <c r="V25" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="W25" t="n">
         <v>1</v>
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAE17E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D456730&gt;</t>
         </is>
       </c>
       <c r="Y25" t="inlineStr">
@@ -3299,21 +3307,21 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>CHEMBL3398167</t>
+          <t>CHEMBL1779195</t>
         </is>
       </c>
       <c r="B26" t="inlineStr"/>
       <c r="C26" t="n">
-        <v>561.64</v>
+        <v>388.43</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>4.35</t>
+          <t>2.96</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>COc1cc([C@@]2(O)CCN(C(=O)OC(C)(C)C)C[C@@H]2O)ccc1Nc1ncc2ccc(-c3ccccc3OC)n2n1</t>
+          <t>CC1(C)c2cc(OCCNC(N)=O)ccc2C(=O)c2c1[nH]c1cc(C#N)ccc21</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -3332,16 +3340,16 @@
         </is>
       </c>
       <c r="I26" t="n">
-        <v>57</v>
+        <v>26.18</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>CHEMBL3398705</t>
+          <t>CHEMBL3887074</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Inhibition of ALK (unknown origin) by enzymatic assay</t>
+          <t>Inhibition Assay: ALK-inhibiting activity was measured by following an activity of inhibiting phosphorylation by biotinylated peptide (EGPWLEEEEEAYGWMDF). For the detection of phosphorylation of the biotinylated peptide, time-resolved fluorescence measurement was performed using an anti-phosphorylated tyrosine antibody labeled with europium cryptate and streptavidin conjugated to XL665, i.e., an allophycocyanin derivative.</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -3381,19 +3389,15 @@
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>CHEMBL3396997</t>
+          <t>CHEMBL3886150</t>
         </is>
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>Scientific Literature</t>
-        </is>
-      </c>
-      <c r="U26" t="inlineStr">
-        <is>
-          <t>Bioorg Med Chem Lett</t>
-        </is>
-      </c>
+          <t>BindingDB Database</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr"/>
       <c r="V26" t="n">
         <v>2015</v>
       </c>
@@ -3402,7 +3406,7 @@
       </c>
       <c r="X26" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAE2650&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D4562D0&gt;</t>
         </is>
       </c>
       <c r="Y26" t="inlineStr">
@@ -3414,21 +3418,21 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>CHEMBL3921085</t>
+          <t>CHEMBL3926221</t>
         </is>
       </c>
       <c r="B27" t="inlineStr"/>
       <c r="C27" t="n">
-        <v>358.4</v>
+        <v>667.22</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>3.69</t>
+          <t>4.34</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>CC1(C)c2cc(OC3COC3)ccc2C(=O)c2c1[nH]c1cc(C#N)ccc21</t>
+          <t>CCNC(=O)N1CCN(c2ccc(Nc3ncc(Cl)c(Nc4ccc(N5CCN(C(=O)NCC)CC5)cc4OC)n3)c(OC)c2)CC1</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -3447,16 +3451,16 @@
         </is>
       </c>
       <c r="I27" t="n">
-        <v>17.71</v>
+        <v>18</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>CHEMBL3887074</t>
+          <t>CHEMBL3887132</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Inhibition Assay: ALK-inhibiting activity was measured by following an activity of inhibiting phosphorylation by biotinylated peptide (EGPWLEEEEEAYGWMDF). For the detection of phosphorylation of the biotinylated peptide, time-resolved fluorescence measurement was performed using an anti-phosphorylated tyrosine antibody labeled with europium cryptate and streptavidin conjugated to XL665, i.e., an allophycocyanin derivative.</t>
+          <t>Homogeneous Time-resolved fluorescence (HTRF) Assay: In order to measure the inhibitory activity against ALK, a Grainer 96-well round type bottom plate was added with the compounds (2 μl) prepared in Examples 1 to 89, and mixed with ALK enzyme (1 ul) and a peptide substrate (2 μl) with biotin attached thereto for 15 minutes and cultured thereafter. Here, ATP solution (5 μl) was added thereto and kinase reaction was performed at room temperature for 30 minutes. XL 665 (5 μl), to which Streptavidin dissolved in ethylenediaminetetraacetic acid solution was attached, anti-phosphotyrosine antibody (5 μl), to which europium (Eu3+) was attached, were added to a reaction solution to stop the reaction, cultured for 1 hour, and analyzed using Homogeneous Time-resolved fluorescence (HTRF, Cisbio). The result was read by a Wallac Envision 2103 device at the wavelength range of 615/665 nm.</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
@@ -3496,7 +3500,7 @@
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>CHEMBL3886150</t>
+          <t>CHEMBL3886178</t>
         </is>
       </c>
       <c r="T27" t="inlineStr">
@@ -3513,7 +3517,7 @@
       </c>
       <c r="X27" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAE28F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D456260&gt;</t>
         </is>
       </c>
       <c r="Y27" t="inlineStr">
@@ -3525,21 +3529,21 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>CHEMBL3785774</t>
+          <t>CHEMBL1823223</t>
         </is>
       </c>
       <c r="B28" t="inlineStr"/>
       <c r="C28" t="n">
-        <v>626.23</v>
+        <v>468.6</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>5.64</t>
+          <t>4.55</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>COc1cc2c(cc1Nc1ncc(Cl)c(Nc3ccccc3S(=O)(=O)C(C)C)n1)CC/C(=N\N1CCN(C)CC1)C2(C)C</t>
+          <t>CC(C)c1cc2c(cc1N1CCN(C3COC3)CC1)C(C)(C)c1[nH]c3cc(C#N)ccc3c1C2=O</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -3558,16 +3562,16 @@
         </is>
       </c>
       <c r="I28" t="n">
-        <v>8.4</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>CHEMBL3791604</t>
+          <t>CHEMBL1828297</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Inhibition of ALK L1196M mutant (unknown origin) after 30 mins by HTRF assay</t>
+          <t>Inhibition of ALK activity by TR-FRET assay</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
@@ -3582,7 +3586,7 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>Homo sapiens</t>
+          <t>None</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -3607,7 +3611,7 @@
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>CHEMBL3784918</t>
+          <t>CHEMBL1821705</t>
         </is>
       </c>
       <c r="T28" t="inlineStr">
@@ -3617,18 +3621,18 @@
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>Bioorg Med Chem Lett</t>
+          <t>J. Med. Chem.</t>
         </is>
       </c>
       <c r="V28" t="n">
-        <v>2016</v>
+        <v>2011</v>
       </c>
       <c r="W28" t="n">
         <v>1</v>
       </c>
       <c r="X28" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAE2B20&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D4545F0&gt;</t>
         </is>
       </c>
       <c r="Y28" t="inlineStr">
@@ -3640,21 +3644,21 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>CHEMBL1779190</t>
+          <t>CHEMBL3953919</t>
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
       <c r="C29" t="n">
-        <v>421.5</v>
+        <v>661.11</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>4.67</t>
+          <t>3.54</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>CCN(CC)CCOc1ccc2c(c1)C(C)(C)c1[nH]c3cc([N+](=O)[O-])ccc3c1C2=O</t>
+          <t>COc1cc(N2CCN(C(C)=O)CC2)ccc1Nc1ncc(Cl)c(Nc2ccc(N3CCN(C(=O)CO)CC3)cc2OC(F)F)n1</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -3673,16 +3677,16 @@
         </is>
       </c>
       <c r="I29" t="n">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>CHEMBL1781770</t>
+          <t>CHEMBL3887133</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Inhibition of ALK assessed as biotin-EGPWLEEEEEAYGWMDF peptide phosphorylation by TR-FRET assay</t>
+          <t>Homogeneous Time-resolved fluorescence (HTRF) Assay: In order to measure the inhibitory activity against ALK, a Grainer 96-well round type bottom plate was added with the compounds (2 μl) prepared in Examples 1 to 89, and mixed with ALK enzyme (1 ul) and a peptide substrate (2 μl) with biotin attached thereto for 15 minutes and cultured thereafter. Here, ATP solution (5 μl) was added thereto and kinase reaction was performed at room temperature for 30 minutes. XL 665 (5 μl), to which Streptavidin dissolved in ethylenediaminetetraacetic acid solution was attached, anti-phosphotyrosine antibody (5 μl), to which europium (Eu3+) was attached, were added to a reaction solution to stop the reaction, cultured for 1 hour, and analyzed using Homogeneous Time-resolved fluorescence (HTRF, Cisbio). The result was read by a Wallac Envision 2103 device at the wavelength range of 615/665 nm.</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
@@ -3722,28 +3726,24 @@
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>CHEMBL1777813</t>
+          <t>CHEMBL3886178</t>
         </is>
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>Scientific Literature</t>
-        </is>
-      </c>
-      <c r="U29" t="inlineStr">
-        <is>
-          <t>Bioorg Med Chem Lett</t>
-        </is>
-      </c>
+          <t>BindingDB Database</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr"/>
       <c r="V29" t="n">
-        <v>2011</v>
+        <v>2015</v>
       </c>
       <c r="W29" t="n">
         <v>1</v>
       </c>
       <c r="X29" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAE2340&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D457B50&gt;</t>
         </is>
       </c>
       <c r="Y29" t="inlineStr">
@@ -3755,21 +3755,21 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>CHEMBL3922741</t>
+          <t>CHEMBL3651881</t>
         </is>
       </c>
       <c r="B30" t="inlineStr"/>
       <c r="C30" t="n">
-        <v>414.47</v>
+        <v>590.79</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>3.31</t>
+          <t>6.84</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>CC1(C)c2cc(OCCN3CCNC3=O)ccc2C(=O)c2c1[nH]c1cc(C#N)ccc21</t>
+          <t>Cc1cc(Nc2nc(Nc3ccccc3S(=O)(=O)C(C)C)c3c(C)c[nH]c3n2)c(OC(C)C)cc1C1CCN(C)CC1</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -3788,16 +3788,16 @@
         </is>
       </c>
       <c r="I30" t="n">
-        <v>6.159</v>
+        <v>9</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>CHEMBL3887074</t>
+          <t>CHEMBL3705165</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Inhibition Assay: ALK-inhibiting activity was measured by following an activity of inhibiting phosphorylation by biotinylated peptide (EGPWLEEEEEAYGWMDF). For the detection of phosphorylation of the biotinylated peptide, time-resolved fluorescence measurement was performed using an anti-phosphorylated tyrosine antibody labeled with europium cryptate and streptavidin conjugated to XL665, i.e., an allophycocyanin derivative.</t>
+          <t>Enzyme Assay: The inhibition of ALK tyrosine kinase activity may be demonstrated using known methods, for example using the recombinant kinase domain of the ALK in analogy to the VEGF-R kinase assay described in J. Wood et al. Cancer Res. 60, 2178-2189 (2000).</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
@@ -3837,7 +3837,7 @@
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>CHEMBL3886150</t>
+          <t>CHEMBL3638924</t>
         </is>
       </c>
       <c r="T30" t="inlineStr">
@@ -3847,14 +3847,14 @@
       </c>
       <c r="U30" t="inlineStr"/>
       <c r="V30" t="n">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="W30" t="n">
         <v>1</v>
       </c>
       <c r="X30" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAE15B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D4546D0&gt;</t>
         </is>
       </c>
       <c r="Y30" t="inlineStr">
@@ -3866,21 +3866,21 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>CHEMBL3961467</t>
+          <t>CHEMBL3651857</t>
         </is>
       </c>
       <c r="B31" t="inlineStr"/>
       <c r="C31" t="n">
-        <v>438.53</v>
+        <v>621.8099999999999</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>3.97</t>
+          <t>5.60</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>CC1(C)c2cc(N3CCN(C(=O)C4CC4)CC3)ccc2C(=O)c2c1[nH]c1cc(C#N)ccc21</t>
+          <t>Cc1cc(Nc2nc(Nc3ccccc3S(=O)(=O)C(C)C)c3c(C)[nH]nc3n2)c(OC(C)C)cc1C1CCN(CCO)CC1</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -3899,16 +3899,16 @@
         </is>
       </c>
       <c r="I31" t="n">
-        <v>4.2</v>
+        <v>11</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>CHEMBL3887074</t>
+          <t>CHEMBL3705165</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Inhibition Assay: ALK-inhibiting activity was measured by following an activity of inhibiting phosphorylation by biotinylated peptide (EGPWLEEEEEAYGWMDF). For the detection of phosphorylation of the biotinylated peptide, time-resolved fluorescence measurement was performed using an anti-phosphorylated tyrosine antibody labeled with europium cryptate and streptavidin conjugated to XL665, i.e., an allophycocyanin derivative.</t>
+          <t>Enzyme Assay: The inhibition of ALK tyrosine kinase activity may be demonstrated using known methods, for example using the recombinant kinase domain of the ALK in analogy to the VEGF-R kinase assay described in J. Wood et al. Cancer Res. 60, 2178-2189 (2000).</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
@@ -3948,7 +3948,7 @@
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>CHEMBL3886150</t>
+          <t>CHEMBL3638924</t>
         </is>
       </c>
       <c r="T31" t="inlineStr">
@@ -3958,14 +3958,14 @@
       </c>
       <c r="U31" t="inlineStr"/>
       <c r="V31" t="n">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="W31" t="n">
         <v>1</v>
       </c>
       <c r="X31" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAE2A40&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D457300&gt;</t>
         </is>
       </c>
       <c r="Y31" t="inlineStr">
@@ -3977,21 +3977,21 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>CHEMBL3823107</t>
+          <t>CHEMBL3398167</t>
         </is>
       </c>
       <c r="B32" t="inlineStr"/>
       <c r="C32" t="n">
-        <v>515</v>
+        <v>561.64</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>5.01</t>
+          <t>4.35</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>COc1cc(N2CC[C@@H](N(C)C)C2)ccc1Nc1ncc(Cl)c(Nc2ccccc2P(C)(C)=O)n1</t>
+          <t>COc1cc([C@@]2(O)CCN(C(=O)OC(C)(C)C)C[C@@H]2O)ccc1Nc1ncc2ccc(-c3ccccc3OC)n2n1</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -4010,16 +4010,16 @@
         </is>
       </c>
       <c r="I32" t="n">
-        <v>0.33</v>
+        <v>57</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>CHEMBL3824709</t>
+          <t>CHEMBL3398705</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Inhibition of human ALK using poly[Glu:Tyr] (4:1) as substrate and [gamma-33P]ATP measured after 1 hr</t>
+          <t>Inhibition of ALK (unknown origin) by enzymatic assay</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
@@ -4059,7 +4059,7 @@
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>CHEMBL3822358</t>
+          <t>CHEMBL3396997</t>
         </is>
       </c>
       <c r="T32" t="inlineStr">
@@ -4069,18 +4069,18 @@
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>J Med Chem</t>
+          <t>Bioorg. Med. Chem. Lett.</t>
         </is>
       </c>
       <c r="V32" t="n">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="W32" t="n">
         <v>1</v>
       </c>
       <c r="X32" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAE0E40&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D457A70&gt;</t>
         </is>
       </c>
       <c r="Y32" t="inlineStr">
@@ -4092,21 +4092,21 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>CHEMBL3898277</t>
+          <t>CHEMBL3604655</t>
         </is>
       </c>
       <c r="B33" t="inlineStr"/>
       <c r="C33" t="n">
-        <v>345.4</v>
+        <v>548.0700000000001</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>4.13</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>CC1(C)c2cc(OCCN)ccc2C(=O)c2c1[nH]c1cc(C#N)ccc21</t>
+          <t>CCNC(=O)c1cc(OC2CC2)c(Nc2ncc(Cl)c(Nc3cn(C)nc3S(=O)(=O)C(C)C)n2)cc1C</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -4125,16 +4125,16 @@
         </is>
       </c>
       <c r="I33" t="n">
-        <v>8.01</v>
+        <v>4</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>CHEMBL3887074</t>
+          <t>CHEMBL3607640</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Inhibition Assay: ALK-inhibiting activity was measured by following an activity of inhibiting phosphorylation by biotinylated peptide (EGPWLEEEEEAYGWMDF). For the detection of phosphorylation of the biotinylated peptide, time-resolved fluorescence measurement was performed using an anti-phosphorylated tyrosine antibody labeled with europium cryptate and streptavidin conjugated to XL665, i.e., an allophycocyanin derivative.</t>
+          <t>Inhibition of wild type human recombinant ALK using TK substrate-biotin incubated for 30 mins by HTRF assay</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
@@ -4174,15 +4174,19 @@
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>CHEMBL3886150</t>
+          <t>CHEMBL3603807</t>
         </is>
       </c>
       <c r="T33" t="inlineStr">
         <is>
-          <t>BindingDB Database</t>
-        </is>
-      </c>
-      <c r="U33" t="inlineStr"/>
+          <t>Scientific Literature</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>Bioorg. Med. Chem. Lett.</t>
+        </is>
+      </c>
       <c r="V33" t="n">
         <v>2015</v>
       </c>
@@ -4191,7 +4195,7 @@
       </c>
       <c r="X33" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAE0C10&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D454430&gt;</t>
         </is>
       </c>
       <c r="Y33" t="inlineStr">
@@ -4203,21 +4207,21 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>CHEMBL3929912</t>
+          <t>CHEMBL3822664</t>
         </is>
       </c>
       <c r="B34" t="inlineStr"/>
       <c r="C34" t="n">
-        <v>392.48</v>
+        <v>633.97</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>3.67</t>
+          <t>5.45</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>C[S+]([O-])CCOc1ccc2c(c1)C(C)(C)c1[nH]c3cc(C#N)ccc3c1C2=O</t>
+          <t>COc1cc(N2CCC(N3CCN(C)CC3)CC2)ccc1Nc1ncc(Cl)c(Nc2ccccc2I)n1</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -4236,16 +4240,16 @@
         </is>
       </c>
       <c r="I34" t="n">
-        <v>10.25</v>
+        <v>1.36</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>CHEMBL3887074</t>
+          <t>CHEMBL3824709</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Inhibition Assay: ALK-inhibiting activity was measured by following an activity of inhibiting phosphorylation by biotinylated peptide (EGPWLEEEEEAYGWMDF). For the detection of phosphorylation of the biotinylated peptide, time-resolved fluorescence measurement was performed using an anti-phosphorylated tyrosine antibody labeled with europium cryptate and streptavidin conjugated to XL665, i.e., an allophycocyanin derivative.</t>
+          <t>Inhibition of human ALK using poly[Glu:Tyr] (4:1) as substrate and [gamma-33P]ATP measured after 1 hr</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
@@ -4285,24 +4289,28 @@
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>CHEMBL3886150</t>
+          <t>CHEMBL3822358</t>
         </is>
       </c>
       <c r="T34" t="inlineStr">
         <is>
-          <t>BindingDB Database</t>
-        </is>
-      </c>
-      <c r="U34" t="inlineStr"/>
+          <t>Scientific Literature</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>J. Med. Chem.</t>
+        </is>
+      </c>
       <c r="V34" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="W34" t="n">
         <v>1</v>
       </c>
       <c r="X34" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAE0890&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D454580&gt;</t>
         </is>
       </c>
       <c r="Y34" t="inlineStr">
@@ -4314,26 +4322,26 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>CHEMBL3357461</t>
+          <t>CHEMBL3986050</t>
         </is>
       </c>
       <c r="B35" t="inlineStr"/>
       <c r="C35" t="n">
-        <v>571.1</v>
+        <v>584.51</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>4.55</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>CC(C)S(=O)(=O)c1ccccc1Nc1nc(Nc2cccc(NC(=O)CN3CC4CCC(C3)O4)c2)ncc1Cl</t>
+          <t>COc1cc(C(=O)NCCCCN(C)C)ccc1Nc1nc(Cc2c(Cl)cccc2Cl)n2ccnc2c1C(N)=O</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>IC50</t>
+          <t>Ki</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -4347,16 +4355,16 @@
         </is>
       </c>
       <c r="I35" t="n">
-        <v>51.3</v>
+        <v>3</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>CHEMBL3364272</t>
+          <t>CHEMBL3887723</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Inhibition of ALK (unknown origin) after 60 mins by ELISA</t>
+          <t>Enzyme Inhibition Assay: ALK kinase assays were conducted with the indicated final concentrations unless otherwise specified. In 384 well black plates (Axygen), 8 ul of compound (2% DMSO) was incubated with 8 ul Lck-peptide substrate (0.5 uM, biotin-Ahx-GAEEEIYAAFFA-COOH) and 8 ul of a mixture of ALK (3 nM, Millipore) and ATP (50 uM) in reaction buffer (50 mM Hepes, pH 7.4; 10 mM MgCl2; 2 mM MnCl2; 0.1 mM sodium orthovanadate; 0.01% BSA and 1 mM DTT (added fresh before assay) for 1 h at room temperature. Reactions were then quenched by the addition of 30 ul quench solution (streptavidin-allophycocyanin and Europium-cryptate PT66 monoclonal antibody in 40 mM Hepes, pH 7.4; 480 mM KF; 66 mM EDTA; 0.01% Tween-20; and 0.1% BSA) at room temperature. Plates were read 1 h after quenching on an Envision Multilaber Reader and IC50 values were calculated using a sigmoidal fit of the concentration/inhibition response curves. These values were converted to apparent Ki values.</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
@@ -4396,19 +4404,15 @@
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>CHEMBL3351234</t>
+          <t>CHEMBL3886424</t>
         </is>
       </c>
       <c r="T35" t="inlineStr">
         <is>
-          <t>Scientific Literature</t>
-        </is>
-      </c>
-      <c r="U35" t="inlineStr">
-        <is>
-          <t>J Med Chem</t>
-        </is>
-      </c>
+          <t>BindingDB Database</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr"/>
       <c r="V35" t="n">
         <v>2015</v>
       </c>
@@ -4417,7 +4421,7 @@
       </c>
       <c r="X35" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAE07B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D4573E0&gt;</t>
         </is>
       </c>
       <c r="Y35" t="inlineStr">
@@ -4429,21 +4433,21 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>CHEMBL4782674</t>
+          <t>CHEMBL3961537</t>
         </is>
       </c>
       <c r="B36" t="inlineStr"/>
       <c r="C36" t="n">
-        <v>488.01</v>
+        <v>414.51</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>4.45</t>
+          <t>3.97</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>COc1cc2c(cc1Nc1ncc(Cl)c(Nc3ccccc3S(=O)(=O)C(C)C)n1)CCNC2</t>
+          <t>CN1CCC(Oc2cc3c(cc2N)C(=O)c2c([nH]c4cc(C#N)ccc24)C3(C)C)CC1</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -4462,16 +4466,16 @@
         </is>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
+        <v>3.612</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>CHEMBL4716187</t>
+          <t>CHEMBL3887074</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Inhibition of ALK (unknown origin) using peptide substrate incubated for 30 mins in presence of ATP by fluorescence assay</t>
+          <t>Inhibition Assay: ALK-inhibiting activity was measured by following an activity of inhibiting phosphorylation by biotinylated peptide (EGPWLEEEEEAYGWMDF). For the detection of phosphorylation of the biotinylated peptide, time-resolved fluorescence measurement was performed using an anti-phosphorylated tyrosine antibody labeled with europium cryptate and streptavidin conjugated to XL665, i.e., an allophycocyanin derivative.</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
@@ -4511,28 +4515,24 @@
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>CHEMBL4715694</t>
+          <t>CHEMBL3886150</t>
         </is>
       </c>
       <c r="T36" t="inlineStr">
         <is>
-          <t>Scientific Literature</t>
-        </is>
-      </c>
-      <c r="U36" t="inlineStr">
-        <is>
-          <t>Bioorg Med Chem</t>
-        </is>
-      </c>
+          <t>BindingDB Database</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr"/>
       <c r="V36" t="n">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="W36" t="n">
         <v>1</v>
       </c>
       <c r="X36" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAE0270&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D454820&gt;</t>
         </is>
       </c>
       <c r="Y36" t="inlineStr">
@@ -4544,21 +4544,21 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>CHEMBL3357447</t>
+          <t>CHEMBL3651876</t>
         </is>
       </c>
       <c r="B37" t="inlineStr"/>
       <c r="C37" t="n">
-        <v>503.03</v>
+        <v>676.89</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>6.08</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>CC(C)S(=O)(=O)c1ccccc1Nc1nc(Nc2cccc(NC(=O)C(C)(C)N)c2)ncc1Cl</t>
+          <t>Cc1cc(Nc2nc(Nc3ccccc3S(=O)(=O)C(C)C)c3c(C)[nH]nc3n2)c(OC(C)C)cc1C1CCN(C(=O)CCN(C)C)CC1</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -4577,16 +4577,16 @@
         </is>
       </c>
       <c r="I37" t="n">
-        <v>5.5</v>
+        <v>18</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>CHEMBL3364272</t>
+          <t>CHEMBL3705165</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Inhibition of ALK (unknown origin) after 60 mins by ELISA</t>
+          <t>Enzyme Assay: The inhibition of ALK tyrosine kinase activity may be demonstrated using known methods, for example using the recombinant kinase domain of the ALK in analogy to the VEGF-R kinase assay described in J. Wood et al. Cancer Res. 60, 2178-2189 (2000).</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
@@ -4626,28 +4626,24 @@
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>CHEMBL3351234</t>
+          <t>CHEMBL3638924</t>
         </is>
       </c>
       <c r="T37" t="inlineStr">
         <is>
-          <t>Scientific Literature</t>
-        </is>
-      </c>
-      <c r="U37" t="inlineStr">
-        <is>
-          <t>J Med Chem</t>
-        </is>
-      </c>
+          <t>BindingDB Database</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr"/>
       <c r="V37" t="n">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="W37" t="n">
         <v>1</v>
       </c>
       <c r="X37" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAE3300&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D455CB0&gt;</t>
         </is>
       </c>
       <c r="Y37" t="inlineStr">
@@ -4659,21 +4655,21 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>CHEMBL1822521</t>
+          <t>CHEMBL3898277</t>
         </is>
       </c>
       <c r="B38" t="inlineStr"/>
       <c r="C38" t="n">
-        <v>488.59</v>
+        <v>345.4</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>3.66</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>COc1cc(N2CCN(C[C@@H](C)O)CC2)ccc1Nc1ncc2ccc(-c3ccccc3OC)n2n1</t>
+          <t>CC1(C)c2cc(OCCN)ccc2C(=O)c2c1[nH]c1cc(C#N)ccc21</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -4692,16 +4688,16 @@
         </is>
       </c>
       <c r="I38" t="n">
-        <v>3.8</v>
+        <v>8.01</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>CHEMBL1825977</t>
+          <t>CHEMBL3887074</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Inhibition of human recombinant ALK assessed as phosphorylated product using PLC-gamma/GST substrate by modified ELISA method</t>
+          <t>Inhibition Assay: ALK-inhibiting activity was measured by following an activity of inhibiting phosphorylation by biotinylated peptide (EGPWLEEEEEAYGWMDF). For the detection of phosphorylation of the biotinylated peptide, time-resolved fluorescence measurement was performed using an anti-phosphorylated tyrosine antibody labeled with europium cryptate and streptavidin conjugated to XL665, i.e., an allophycocyanin derivative.</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
@@ -4741,28 +4737,24 @@
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>CHEMBL1821719</t>
+          <t>CHEMBL3886150</t>
         </is>
       </c>
       <c r="T38" t="inlineStr">
         <is>
-          <t>Scientific Literature</t>
-        </is>
-      </c>
-      <c r="U38" t="inlineStr">
-        <is>
-          <t>J Med Chem</t>
-        </is>
-      </c>
+          <t>BindingDB Database</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr"/>
       <c r="V38" t="n">
-        <v>2011</v>
+        <v>2015</v>
       </c>
       <c r="W38" t="n">
         <v>1</v>
       </c>
       <c r="X38" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAE0900&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D4561F0&gt;</t>
         </is>
       </c>
       <c r="Y38" t="inlineStr">
@@ -4774,21 +4766,21 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>CHEMBL3357451</t>
+          <t>CHEMBL3983559</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
       <c r="C39" t="n">
-        <v>501.01</v>
+        <v>485.58</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>4.10</t>
+          <t>5.69</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>CC(C)S(=O)(=O)c1ccccc1Nc1nc(Nc2cccc(NC(=O)C3CCN3)c2)ncc1Cl</t>
+          <t>CC(C)(C)OC(=O)N1CCC(Oc2ccc3c(c2)C(C)(C)c2[nH]c4cc(C#N)ccc4c2C3=O)CC1</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -4807,16 +4799,16 @@
         </is>
       </c>
       <c r="I39" t="n">
-        <v>44.2</v>
+        <v>52.71</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>CHEMBL3364272</t>
+          <t>CHEMBL3887074</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Inhibition of ALK (unknown origin) after 60 mins by ELISA</t>
+          <t>Inhibition Assay: ALK-inhibiting activity was measured by following an activity of inhibiting phosphorylation by biotinylated peptide (EGPWLEEEEEAYGWMDF). For the detection of phosphorylation of the biotinylated peptide, time-resolved fluorescence measurement was performed using an anti-phosphorylated tyrosine antibody labeled with europium cryptate and streptavidin conjugated to XL665, i.e., an allophycocyanin derivative.</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
@@ -4856,19 +4848,15 @@
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>CHEMBL3351234</t>
+          <t>CHEMBL3886150</t>
         </is>
       </c>
       <c r="T39" t="inlineStr">
         <is>
-          <t>Scientific Literature</t>
-        </is>
-      </c>
-      <c r="U39" t="inlineStr">
-        <is>
-          <t>J Med Chem</t>
-        </is>
-      </c>
+          <t>BindingDB Database</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr"/>
       <c r="V39" t="n">
         <v>2015</v>
       </c>
@@ -4877,7 +4865,7 @@
       </c>
       <c r="X39" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAE06D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D4515B0&gt;</t>
         </is>
       </c>
       <c r="Y39" t="inlineStr">
@@ -4889,21 +4877,21 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>CHEMBL3651874</t>
+          <t>CHEMBL3897774</t>
         </is>
       </c>
       <c r="B40" t="inlineStr"/>
       <c r="C40" t="n">
-        <v>695.91</v>
+        <v>540.71</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>5.79</t>
+          <t>4.91</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Cc1cc(Nc2nc(Nc3ccccc3S(=O)(=O)C(C)C)c3c(C)[nH]nc3n2)c(OC(C)C)cc1C1CCN([C@@H]2CCS(=O)(=O)C2)CC1</t>
+          <t>CCc1cc2c(cc1N1CCN(CC3(O)CC(C)OC(C)C3)CC1)C(C)(C)c1[nH]c3cc(C#N)ccc3c1C2=O</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -4922,16 +4910,16 @@
         </is>
       </c>
       <c r="I40" t="n">
-        <v>18</v>
+        <v>2.4</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>CHEMBL3705165</t>
+          <t>CHEMBL3864889</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Enzyme Assay: The inhibition of ALK tyrosine kinase activity may be demonstrated using known methods, for example using the recombinant kinase domain of the ALK in analogy to the VEGF-R kinase assay described in J. Wood et al. Cancer Res. 60, 2178-2189 (2000).</t>
+          <t>Inhibition of recombinant wild type ALK (unknown origin) using poly (Glu,Tyr)4:1 as substrate after 60 mins by ELISA</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
@@ -4971,24 +4959,28 @@
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>CHEMBL3638924</t>
+          <t>CHEMBL3864153</t>
         </is>
       </c>
       <c r="T40" t="inlineStr">
         <is>
-          <t>BindingDB Database</t>
-        </is>
-      </c>
-      <c r="U40" t="inlineStr"/>
+          <t>Scientific Literature</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>Bioorg Med Chem Lett</t>
+        </is>
+      </c>
       <c r="V40" t="n">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="W40" t="n">
         <v>1</v>
       </c>
       <c r="X40" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAE0AC0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D453060&gt;</t>
         </is>
       </c>
       <c r="Y40" t="inlineStr">
@@ -5000,21 +4992,21 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>CHEMBL1779194</t>
+          <t>CHEMBL4762215</t>
         </is>
       </c>
       <c r="B41" t="inlineStr"/>
       <c r="C41" t="n">
-        <v>387.44</v>
+        <v>643.98</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>3.42</t>
+          <t>4.94</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>CC(=O)NCCOc1ccc2c(c1)C(C)(C)c1[nH]c3cc(C#N)ccc3c1C2=O</t>
+          <t>COc1cc2c(cc1Nc1ncc(Cl)c(Nc3ccccc3S(=O)(=O)C(C)C)n1)CC[N+](C)(C)C2</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -5033,16 +5025,16 @@
         </is>
       </c>
       <c r="I41" t="n">
-        <v>11.6</v>
+        <v>3.3</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>CHEMBL1781770</t>
+          <t>CHEMBL4716189</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Inhibition of ALK assessed as biotin-EGPWLEEEEEAYGWMDF peptide phosphorylation by TR-FRET assay</t>
+          <t>Inhibition of crizotinib-resistant ALK L1196M mutant (unknown origin) using peptide substrate incubated for 30 mins in presence of ATP by fluorescence assay</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
@@ -5057,7 +5049,7 @@
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Homo sapiens</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
@@ -5082,7 +5074,7 @@
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>CHEMBL1777813</t>
+          <t>CHEMBL4715694</t>
         </is>
       </c>
       <c r="T41" t="inlineStr">
@@ -5092,18 +5084,18 @@
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>Bioorg Med Chem Lett</t>
+          <t>Bioorg Med Chem</t>
         </is>
       </c>
       <c r="V41" t="n">
-        <v>2011</v>
+        <v>2016</v>
       </c>
       <c r="W41" t="n">
         <v>1</v>
       </c>
       <c r="X41" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAE2AB0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D451E70&gt;</t>
         </is>
       </c>
       <c r="Y41" t="inlineStr">
@@ -5115,21 +5107,21 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>CHEMBL1642262</t>
+          <t>CHEMBL3908208</t>
         </is>
       </c>
       <c r="B42" t="inlineStr"/>
       <c r="C42" t="n">
-        <v>582.11</v>
+        <v>523.72</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>3.62</t>
+          <t>7.43</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>CNC(=O)CN1CCc2cc(Nc3ncc(Cl)c(Nc4ccc(N5CCOCC5)cc4OC)n3)c(OC)cc2CC1</t>
+          <t>CCc1cc2c(cc1N1CCC(OCCC3CCCCC3)CC1)C(C)(C)c1[nH]c3cc(C#N)ccc3c1C2=O</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -5148,16 +5140,16 @@
         </is>
       </c>
       <c r="I42" t="n">
-        <v>6</v>
+        <v>21.74</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>CHEMBL1648480</t>
+          <t>CHEMBL3887074</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Inhibition of ALK</t>
+          <t>Inhibition Assay: ALK-inhibiting activity was measured by following an activity of inhibiting phosphorylation by biotinylated peptide (EGPWLEEEEEAYGWMDF). For the detection of phosphorylation of the biotinylated peptide, time-resolved fluorescence measurement was performed using an anti-phosphorylated tyrosine antibody labeled with europium cryptate and streptavidin conjugated to XL665, i.e., an allophycocyanin derivative.</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
@@ -5172,7 +5164,7 @@
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Homo sapiens</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
@@ -5197,28 +5189,24 @@
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>CHEMBL1641404</t>
+          <t>CHEMBL3886150</t>
         </is>
       </c>
       <c r="T42" t="inlineStr">
         <is>
-          <t>Scientific Literature</t>
-        </is>
-      </c>
-      <c r="U42" t="inlineStr">
-        <is>
-          <t>Bioorg Med Chem Lett</t>
-        </is>
-      </c>
+          <t>BindingDB Database</t>
+        </is>
+      </c>
+      <c r="U42" t="inlineStr"/>
       <c r="V42" t="n">
-        <v>2011</v>
+        <v>2015</v>
       </c>
       <c r="W42" t="n">
         <v>1</v>
       </c>
       <c r="X42" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAE3D10&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D453E60&gt;</t>
         </is>
       </c>
       <c r="Y42" t="inlineStr">
@@ -5230,21 +5218,21 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>CHEMBL4765021</t>
+          <t>CHEMBL3892306</t>
         </is>
       </c>
       <c r="B43" t="inlineStr"/>
       <c r="C43" t="n">
-        <v>532.0700000000001</v>
+        <v>401.51</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>4.16</t>
+          <t>4.68</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>COc1cc2c(cc1Nc1ncc(Cl)c(Nc3ccccc3S(=O)(=O)C(C)C)n1)CCN(CCO)C2</t>
+          <t>CC(C)(C)NCCOc1ccc2c(c1)C(C)(C)c1[nH]c3cc(C#N)ccc3c1C2=O</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -5263,16 +5251,16 @@
         </is>
       </c>
       <c r="I43" t="n">
-        <v>10</v>
+        <v>6.73</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>CHEMBL4716189</t>
+          <t>CHEMBL3887074</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Inhibition of crizotinib-resistant ALK L1196M mutant (unknown origin) using peptide substrate incubated for 30 mins in presence of ATP by fluorescence assay</t>
+          <t>Inhibition Assay: ALK-inhibiting activity was measured by following an activity of inhibiting phosphorylation by biotinylated peptide (EGPWLEEEEEAYGWMDF). For the detection of phosphorylation of the biotinylated peptide, time-resolved fluorescence measurement was performed using an anti-phosphorylated tyrosine antibody labeled with europium cryptate and streptavidin conjugated to XL665, i.e., an allophycocyanin derivative.</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
@@ -5312,28 +5300,24 @@
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>CHEMBL4715694</t>
+          <t>CHEMBL3886150</t>
         </is>
       </c>
       <c r="T43" t="inlineStr">
         <is>
-          <t>Scientific Literature</t>
-        </is>
-      </c>
-      <c r="U43" t="inlineStr">
-        <is>
-          <t>Bioorg Med Chem</t>
-        </is>
-      </c>
+          <t>BindingDB Database</t>
+        </is>
+      </c>
+      <c r="U43" t="inlineStr"/>
       <c r="V43" t="n">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="W43" t="n">
         <v>1</v>
       </c>
       <c r="X43" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAE3530&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D453220&gt;</t>
         </is>
       </c>
       <c r="Y43" t="inlineStr">
@@ -5345,21 +5329,21 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>CHEMBL3893584</t>
+          <t>CHEMBL3917881</t>
         </is>
       </c>
       <c r="B44" t="inlineStr"/>
       <c r="C44" t="n">
-        <v>423.49</v>
+        <v>438.58</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2.84</t>
+          <t>4.97</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>CC1(C)c2cc(OCCNS(C)(=O)=O)ccc2C(=O)c2c1[nH]c1cc(C#N)ccc21</t>
+          <t>CC1(C)c2ccc(N3CCC(N4CCCC4)CC3)cc2C(=O)c2c1[nH]c1cc(C#N)ccc21</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -5378,7 +5362,7 @@
         </is>
       </c>
       <c r="I44" t="n">
-        <v>4.943</v>
+        <v>15.29</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
@@ -5444,7 +5428,7 @@
       </c>
       <c r="X44" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAE33E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D452490&gt;</t>
         </is>
       </c>
       <c r="Y44" t="inlineStr">
@@ -5456,21 +5440,21 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>CHEMBL3651876</t>
+          <t>CHEMBL3651843</t>
         </is>
       </c>
       <c r="B45" t="inlineStr"/>
       <c r="C45" t="n">
-        <v>676.89</v>
+        <v>654.1900000000001</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>6.08</t>
+          <t>4.07</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Cc1cc(Nc2nc(Nc3ccccc3S(=O)(=O)C(C)C)c3c(C)[nH]nc3n2)c(OC(C)C)cc1C1CCN(C(=O)CCN(C)C)CC1</t>
+          <t>COc1cc2c(cc1Nc1ncc(Cl)c(Nc3ccccc3S(=O)(=O)C(C)C)n1)C(=O)N(C1CN(C(=O)[C@@H]3CCCN3C)C1)C2</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -5489,7 +5473,7 @@
         </is>
       </c>
       <c r="I45" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
@@ -5555,7 +5539,7 @@
       </c>
       <c r="X45" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAE2F10&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D452F80&gt;</t>
         </is>
       </c>
       <c r="Y45" t="inlineStr">
@@ -5567,21 +5551,21 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>CHEMBL3930736</t>
+          <t>CHEMBL4747624</t>
         </is>
       </c>
       <c r="B46" t="inlineStr"/>
       <c r="C46" t="n">
-        <v>453.59</v>
+        <v>567.09</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>5.21</t>
+          <t>3.37</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>CCc1cc2c(cc1N1CCC(O)(C3CC3)CC1)C(C)(C)c1[nH]c3cc(C#N)ccc3c1C2=O</t>
+          <t>COc1cc2c(cc1Nc1ncc(Cl)c(Nc3ccccc3S(=O)(=O)C(C)C)n1)CN(S(N)(=O)=O)CC2</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -5600,16 +5584,16 @@
         </is>
       </c>
       <c r="I46" t="n">
-        <v>14.2</v>
+        <v>8</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>CHEMBL3887074</t>
+          <t>CHEMBL4716187</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Inhibition Assay: ALK-inhibiting activity was measured by following an activity of inhibiting phosphorylation by biotinylated peptide (EGPWLEEEEEAYGWMDF). For the detection of phosphorylation of the biotinylated peptide, time-resolved fluorescence measurement was performed using an anti-phosphorylated tyrosine antibody labeled with europium cryptate and streptavidin conjugated to XL665, i.e., an allophycocyanin derivative.</t>
+          <t>Inhibition of ALK (unknown origin) using peptide substrate incubated for 30 mins in presence of ATP by fluorescence assay</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
@@ -5649,24 +5633,28 @@
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>CHEMBL3886150</t>
+          <t>CHEMBL4715694</t>
         </is>
       </c>
       <c r="T46" t="inlineStr">
         <is>
-          <t>BindingDB Database</t>
-        </is>
-      </c>
-      <c r="U46" t="inlineStr"/>
+          <t>Scientific Literature</t>
+        </is>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>Bioorg Med Chem</t>
+        </is>
+      </c>
       <c r="V46" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="W46" t="n">
         <v>1</v>
       </c>
       <c r="X46" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAE2C00&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D451620&gt;</t>
         </is>
       </c>
       <c r="Y46" t="inlineStr">
@@ -5678,21 +5666,21 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>CHEMBL4758571</t>
+          <t>CHEMBL3669136</t>
         </is>
       </c>
       <c r="B47" t="inlineStr"/>
       <c r="C47" t="n">
-        <v>535.99</v>
+        <v>531.6799999999999</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>5.81</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>CNC(=O)c1ccccc1Nc1nc(Nc2ccc(-n3cccc3C(=O)NCCO)cc2OC)ncc1Cl</t>
+          <t>COc1ccccc1-c1c(C(N)=O)sc2cnc(Nc3ccc(C4CCN(C)CC4)cc3OC(C)C)nc12</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -5711,16 +5699,16 @@
         </is>
       </c>
       <c r="I47" t="n">
-        <v>9.6</v>
+        <v>7</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>CHEMBL4672519</t>
+          <t>CHEMBL3705810</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Inhibition of wild-type ALK (unknown origin) incubated for 1 hr</t>
+          <t>In Vitro Inhibition Assay: The reagents used have the following composition: Enzyme buffer (EB): 50 mM HEPES (pH: 7.0) (Sigma H7523), 100 mM NaCl (Sigma S7653), NaN.sub.3 at 0.01% (Sigma S8032), BSA at 0.005% (Sigma A2153), 0.05 mM sodium orthovanadate (Calbiochem 567540). Detection buffer (DB): 50 mM HEPES (pH: 7.0), BSA at 0.1%, 0.8 M KF (Fluka 60239), 20 mM EDTA (Sigma E5134).The peptide used is the one described in Biochemistry, 2005, 44, 8533-8542; A-21-K(biotin)NH.sub.2, obtained from NeoMPS (reference SP081233). All the HTRF reagents Mab PT66-K (61T66KLB) and streptavidin-XL665 (610SAXLB), and the SEB reagent, are purchased from Cisbio.The test is carried out in a 384-well plate (Greiner 784076). The serial dilutions are carried out in pure DMSO, and then an intermediate one-in-three dilution in water is carried out, with 1 microliter of each concentration being distributed, all these operations being performed using the Zephyr apparatus (Caliper Life Sciences).</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
@@ -5760,28 +5748,24 @@
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>CHEMBL4665881</t>
+          <t>CHEMBL3639289</t>
         </is>
       </c>
       <c r="T47" t="inlineStr">
         <is>
-          <t>Scientific Literature</t>
-        </is>
-      </c>
-      <c r="U47" t="inlineStr">
-        <is>
-          <t>Bioorg Med Chem</t>
-        </is>
-      </c>
+          <t>BindingDB Database</t>
+        </is>
+      </c>
+      <c r="U47" t="inlineStr"/>
       <c r="V47" t="n">
-        <v>2020</v>
+        <v>2015</v>
       </c>
       <c r="W47" t="n">
         <v>1</v>
       </c>
       <c r="X47" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAE2D50&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D450D60&gt;</t>
         </is>
       </c>
       <c r="Y47" t="inlineStr">
@@ -5793,21 +5777,21 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>CHEMBL3894226</t>
+          <t>CHEMBL3892880</t>
         </is>
       </c>
       <c r="B48" t="inlineStr"/>
       <c r="C48" t="n">
-        <v>360.37</v>
+        <v>463.38</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>3.37</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>CC1(C)c2cc(OCC(=O)O)ccc2C(=O)c2c1[nH]c1cc(C#N)ccc21</t>
+          <t>CC1(C)c2cc(N3CCC(N)CC3)c(Br)cc2C(=O)c2c1[nH]c1cc(C#N)ccc21</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -5826,7 +5810,7 @@
         </is>
       </c>
       <c r="I48" t="n">
-        <v>45.96</v>
+        <v>0.168</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
@@ -5892,7 +5876,7 @@
       </c>
       <c r="X48" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAE13F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D452730&gt;</t>
         </is>
       </c>
       <c r="Y48" t="inlineStr">
@@ -5904,21 +5888,21 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>CHEMBL3651849</t>
+          <t>CHEMBL3942730</t>
         </is>
       </c>
       <c r="B49" t="inlineStr"/>
       <c r="C49" t="n">
-        <v>685.85</v>
+        <v>346.39</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>6.03</t>
+          <t>2.94</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Cc1cc(Nc2nc(Nc3ccccc3S(=O)(=O)C(C)C)c3c(C)[nH]nc3n2)c(OC(C)C)cc1C1CCN(C(=O)Cn2cccn2)CC1</t>
+          <t>CC1(C)c2cc(C(O)CO)ccc2C(=O)c2c1[nH]c1cc(C#N)ccc21</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -5937,16 +5921,16 @@
         </is>
       </c>
       <c r="I49" t="n">
-        <v>22</v>
+        <v>11.89</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>CHEMBL3705165</t>
+          <t>CHEMBL3887074</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Enzyme Assay: The inhibition of ALK tyrosine kinase activity may be demonstrated using known methods, for example using the recombinant kinase domain of the ALK in analogy to the VEGF-R kinase assay described in J. Wood et al. Cancer Res. 60, 2178-2189 (2000).</t>
+          <t>Inhibition Assay: ALK-inhibiting activity was measured by following an activity of inhibiting phosphorylation by biotinylated peptide (EGPWLEEEEEAYGWMDF). For the detection of phosphorylation of the biotinylated peptide, time-resolved fluorescence measurement was performed using an anti-phosphorylated tyrosine antibody labeled with europium cryptate and streptavidin conjugated to XL665, i.e., an allophycocyanin derivative.</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
@@ -5986,7 +5970,7 @@
       </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t>CHEMBL3638924</t>
+          <t>CHEMBL3886150</t>
         </is>
       </c>
       <c r="T49" t="inlineStr">
@@ -5996,14 +5980,14 @@
       </c>
       <c r="U49" t="inlineStr"/>
       <c r="V49" t="n">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="W49" t="n">
         <v>1</v>
       </c>
       <c r="X49" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAE1540&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D452C00&gt;</t>
         </is>
       </c>
       <c r="Y49" t="inlineStr">
@@ -6015,21 +5999,21 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>CHEMBL3822499</t>
+          <t>CHEMBL3969437</t>
         </is>
       </c>
       <c r="B50" t="inlineStr"/>
       <c r="C50" t="n">
-        <v>552.12</v>
+        <v>433.46</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>4.90</t>
+          <t>1.76</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>COc1cc(N2CCC(N3CCN(C)CC3)CC2)ccc1Nc1ncc(Cl)c(Nc2ccccc2C(C)O)n1</t>
+          <t>CC1(C)c2cc(OCC(=O)NCC(O)CO)ccc2C(=O)c2c1[nH]c1cc(C#N)ccc21</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -6048,16 +6032,16 @@
         </is>
       </c>
       <c r="I50" t="n">
-        <v>0.99</v>
+        <v>17.5</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>CHEMBL3824709</t>
+          <t>CHEMBL3887074</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Inhibition of human ALK using poly[Glu:Tyr] (4:1) as substrate and [gamma-33P]ATP measured after 1 hr</t>
+          <t>Inhibition Assay: ALK-inhibiting activity was measured by following an activity of inhibiting phosphorylation by biotinylated peptide (EGPWLEEEEEAYGWMDF). For the detection of phosphorylation of the biotinylated peptide, time-resolved fluorescence measurement was performed using an anti-phosphorylated tyrosine antibody labeled with europium cryptate and streptavidin conjugated to XL665, i.e., an allophycocyanin derivative.</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
@@ -6097,28 +6081,24 @@
       </c>
       <c r="S50" t="inlineStr">
         <is>
-          <t>CHEMBL3822358</t>
+          <t>CHEMBL3886150</t>
         </is>
       </c>
       <c r="T50" t="inlineStr">
         <is>
-          <t>Scientific Literature</t>
-        </is>
-      </c>
-      <c r="U50" t="inlineStr">
-        <is>
-          <t>J Med Chem</t>
-        </is>
-      </c>
+          <t>BindingDB Database</t>
+        </is>
+      </c>
+      <c r="U50" t="inlineStr"/>
       <c r="V50" t="n">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="W50" t="n">
         <v>1</v>
       </c>
       <c r="X50" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAE1F50&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D450F90&gt;</t>
         </is>
       </c>
       <c r="Y50" t="inlineStr">
@@ -6130,19 +6110,19 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>CHEMBL3397292</t>
+          <t>CHEMBL3397287</t>
         </is>
       </c>
       <c r="B51" t="inlineStr"/>
       <c r="C51" t="n">
-        <v>496.58</v>
+        <v>510.6</v>
       </c>
       <c r="D51" t="n">
-        <v>3.35</v>
+        <v>3.65</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Cc1cc(O)cc(-c2nn(CC#N)cc2-c2cc(NCCN3CCOCC3)nc(-c3cccnc3)n2)c1</t>
+          <t>COc1cc(C)cc(-c2nn(CC#N)cc2-c2cc(NCCN3CCOCC3)nc(-c3cccnc3)n2)c1</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -6161,7 +6141,7 @@
         </is>
       </c>
       <c r="I51" t="n">
-        <v>20000</v>
+        <v>10200</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
@@ -6220,7 +6200,7 @@
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>Eur J Med Chem</t>
+          <t>Eur. J. Med. Chem.</t>
         </is>
       </c>
       <c r="V51" t="n">
@@ -6231,7 +6211,7 @@
       </c>
       <c r="X51" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAB2810&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D457AE0&gt;</t>
         </is>
       </c>
       <c r="Y51" t="inlineStr">
@@ -6243,28 +6223,24 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>CHEMBL517666</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>GW796921X</t>
-        </is>
-      </c>
+          <t>CHEMBL198399</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr"/>
       <c r="C52" t="n">
-        <v>336.44</v>
+        <v>460.53</v>
       </c>
       <c r="D52" t="n">
-        <v>4.15</v>
+        <v>3.49</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>CCC(=O)Nc1ccc(C)c(-c2ccc(C(=O)NCC3CC3)cc2)c1</t>
+          <t>Cc1cc(CN2CCN(C)CC2)ccc1NC(=O)c1cc(-c2ccc3c(c2)OCO3)cnc1O</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Inhibition</t>
+          <t>IC50</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -6274,20 +6250,20 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>nM</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>1.63</v>
+        <v>14500</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>CHEMBL1962240</t>
+          <t>CHEMBL867052</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>GSK_PKIS: ALK mean inhibition at 0.1 uM [Nanosyn]</t>
+          <t>Inhibitory activity against ALK</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
@@ -6327,22 +6303,28 @@
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>CHEMBL1961873</t>
+          <t>CHEMBL1149386</t>
         </is>
       </c>
       <c r="T52" t="inlineStr">
         <is>
-          <t>GSK Published Kinase Inhibitor Set</t>
-        </is>
-      </c>
-      <c r="U52" t="inlineStr"/>
-      <c r="V52" t="inlineStr"/>
+          <t>Scientific Literature</t>
+        </is>
+      </c>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>J. Med. Chem.</t>
+        </is>
+      </c>
+      <c r="V52" t="n">
+        <v>2006</v>
+      </c>
       <c r="W52" t="n">
         <v>0</v>
       </c>
       <c r="X52" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAB1310&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D4551C0&gt;</t>
         </is>
       </c>
       <c r="Y52" t="inlineStr">
@@ -6354,23 +6336,23 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>CHEMBL482326</t>
+          <t>CHEMBL176553</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>GSK-1030062A</t>
+          <t>GW631581B</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>505.52</v>
+        <v>296.33</v>
       </c>
       <c r="D53" t="n">
-        <v>5.4</v>
+        <v>4.1</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>COc1cc2ncn(-c3cc(OCc4ccccc4C(F)(F)F)c(C(=O)N(C)C)s3)c2cc1OC</t>
+          <t>COc1cc(Nc2ncc(-c3ccccc3)o2)cc(OC)c1</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -6389,16 +6371,16 @@
         </is>
       </c>
       <c r="I53" t="n">
-        <v>0.78</v>
+        <v>2.73</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>CHEMBL1962241</t>
+          <t>CHEMBL1962240</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>GSK_PKIS: ALK mean inhibition at 1 uM [Nanosyn]</t>
+          <t>GSK_PKIS: ALK mean inhibition at 0.1 uM [Nanosyn]</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
@@ -6453,7 +6435,7 @@
       </c>
       <c r="X53" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAB1D90&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D455BD0&gt;</t>
         </is>
       </c>
       <c r="Y53" t="inlineStr">
@@ -6465,23 +6447,23 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>CHEMBL1909393</t>
+          <t>CHEMBL481510</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>GW583373A</t>
+          <t>GW853606X</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>595.55</v>
+        <v>496.31</v>
       </c>
       <c r="D54" t="n">
-        <v>6.43</v>
+        <v>5.55</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>[O-][S+]1CCN(Cc2ccc(-c3ccc4ncnc(Nc5ccc(OCc6ccccc6)c(Cl)c5)c4c3)o2)CC1</t>
+          <t>NC(=O)c1sc(-n2cnc3ccc(C(F)(F)F)cc32)cc1OCc1ccccc1Br</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -6500,7 +6482,7 @@
         </is>
       </c>
       <c r="I54" t="n">
-        <v>8.58</v>
+        <v>3.73</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
@@ -6564,7 +6546,7 @@
       </c>
       <c r="X54" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAB0270&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D455310&gt;</t>
         </is>
       </c>
       <c r="Y54" t="inlineStr">
@@ -6576,23 +6558,23 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>CHEMBL512076</t>
+          <t>CHEMBL1909391</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>GSK-192082A</t>
+          <t>GW576924A</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>566.0599999999999</v>
+        <v>579.1</v>
       </c>
       <c r="D55" t="n">
-        <v>5.63</v>
+        <v>5.92</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>CCNC(=O)O[C@H]1CN[C@H](C#Cc2cc3ncnc(Nc4ccc(OCc5cccc(F)c5)c(Cl)c4)c3s2)C1</t>
+          <t>[O-][S+]1CCN(Cc2ccc(-c3ccc4ncnc(Nc5ccc(OCc6ccccc6)c(F)c5)c4c3)o2)CC1</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -6611,16 +6593,16 @@
         </is>
       </c>
       <c r="I55" t="n">
-        <v>1.85</v>
+        <v>4.79</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>CHEMBL1962240</t>
+          <t>CHEMBL1962241</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>GSK_PKIS: ALK mean inhibition at 0.1 uM [Nanosyn]</t>
+          <t>GSK_PKIS: ALK mean inhibition at 1 uM [Nanosyn]</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
@@ -6675,7 +6657,7 @@
       </c>
       <c r="X55" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAB2CE0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D451540&gt;</t>
         </is>
       </c>
       <c r="Y55" t="inlineStr">
@@ -6687,23 +6669,23 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>CHEMBL362155</t>
+          <t>CHEMBL473420</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>GW827102X</t>
+          <t>GSK-1030058A</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>490.45</v>
+        <v>492.48</v>
       </c>
       <c r="D56" t="n">
-        <v>5.39</v>
+        <v>5.49</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>FC(F)(F)c1cccc(-c2nn3ncccc3c2-c2ccnc(Nc3ccc4c(c3)OCCO4)n2)c1</t>
+          <t>COC(=O)c1sc(-n2cnc3cc(OC)c(OC)cc32)cc1OCc1ccccc1C(F)(F)F</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -6722,16 +6704,16 @@
         </is>
       </c>
       <c r="I56" t="n">
-        <v>2.44</v>
+        <v>12.36</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>CHEMBL1962240</t>
+          <t>CHEMBL1962241</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>GSK_PKIS: ALK mean inhibition at 0.1 uM [Nanosyn]</t>
+          <t>GSK_PKIS: ALK mean inhibition at 1 uM [Nanosyn]</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
@@ -6786,7 +6768,7 @@
       </c>
       <c r="X56" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAB2650&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D451CB0&gt;</t>
         </is>
       </c>
       <c r="Y56" t="inlineStr">
@@ -6798,19 +6780,23 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>CHEMBL4559825</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr"/>
+          <t>CHEMBL365663</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>GW780159X</t>
+        </is>
+      </c>
       <c r="C57" t="n">
-        <v>631.96</v>
+        <v>338.82</v>
       </c>
       <c r="D57" t="n">
-        <v>8.94</v>
+        <v>4.66</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>COc1ccc(-c2nn(-c3cccc(NC(=O)Nc4cc(C(F)(F)F)cc(C(F)(F)F)c4)c3)cc2-c2ccncc2)cc1Cl</t>
+          <t>Nc1nc(-c2cccc(Cl)c2)c(-c2ccc3ncccc3n2)s1</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -6829,16 +6815,16 @@
         </is>
       </c>
       <c r="I57" t="n">
-        <v>-3.13</v>
+        <v>7.43</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>CHEMBL4313437</t>
+          <t>CHEMBL1962241</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Inhibition of human ALK at 10 uM using poly[Glu:Tyr] (4:1) as substrate by [gamma-33P]-ATP assay relative to control</t>
+          <t>GSK_PKIS: ALK mean inhibition at 1 uM [Nanosyn]</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
@@ -6853,7 +6839,7 @@
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>Homo sapiens</t>
+          <t>None</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
@@ -6878,28 +6864,22 @@
       </c>
       <c r="S57" t="inlineStr">
         <is>
-          <t>CHEMBL4311959</t>
+          <t>CHEMBL1961873</t>
         </is>
       </c>
       <c r="T57" t="inlineStr">
         <is>
-          <t>Scientific Literature</t>
-        </is>
-      </c>
-      <c r="U57" t="inlineStr">
-        <is>
-          <t>Eur J Med Chem</t>
-        </is>
-      </c>
-      <c r="V57" t="n">
-        <v>2019</v>
-      </c>
+          <t>GSK Published Kinase Inhibitor Set</t>
+        </is>
+      </c>
+      <c r="U57" t="inlineStr"/>
+      <c r="V57" t="inlineStr"/>
       <c r="W57" t="n">
         <v>0</v>
       </c>
       <c r="X57" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAB2490&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D453AE0&gt;</t>
         </is>
       </c>
       <c r="Y57" t="inlineStr">
@@ -6911,23 +6891,23 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>CHEMBL466412</t>
+          <t>CHEMBL471789</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>GSK-238063A</t>
+          <t>GSK-1030059A</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>566.0599999999999</v>
+        <v>476.48</v>
       </c>
       <c r="D58" t="n">
-        <v>5.59</v>
+        <v>5.9</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>CN(C)C(=O)O[C@@H]1CN[C@@H](C#Cc2cc3ncnc(Nc4ccc(OCc5cccc(F)c5)c(Cl)c4)c3s2)C1</t>
+          <t>COc1cc2ncn(-c3cc(OCc4ccccc4C(F)(F)F)c(C(C)=O)s3)c2cc1OC</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -6946,16 +6926,16 @@
         </is>
       </c>
       <c r="I58" t="n">
-        <v>1.27</v>
+        <v>3.72</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>CHEMBL1962240</t>
+          <t>CHEMBL1962241</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>GSK_PKIS: ALK mean inhibition at 0.1 uM [Nanosyn]</t>
+          <t>GSK_PKIS: ALK mean inhibition at 1 uM [Nanosyn]</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
@@ -7010,7 +6990,7 @@
       </c>
       <c r="X58" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAB0F90&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3EAB90&gt;</t>
         </is>
       </c>
       <c r="Y58" t="inlineStr">
@@ -7121,7 +7101,7 @@
       </c>
       <c r="X59" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAB0AC0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3E9E00&gt;</t>
         </is>
       </c>
       <c r="Y59" t="inlineStr">
@@ -7133,23 +7113,23 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>CHEMBL306865</t>
+          <t>CHEMBL207247</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>GW784752X</t>
+          <t>GW807930X</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>345.37</v>
+        <v>500.96</v>
       </c>
       <c r="D60" t="n">
-        <v>2.67</v>
+        <v>5.63</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>COc1cccc(-n2ncc3c(N/N=C/c4ccncc4)ncnc32)c1</t>
+          <t>CC(=O)NCc1cccc(C#Cc2cncnc2Nc2ccc(OCc3cccc(F)c3)c(Cl)c2)c1</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -7168,16 +7148,16 @@
         </is>
       </c>
       <c r="I60" t="n">
-        <v>7.96</v>
+        <v>-0.48</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>CHEMBL1962241</t>
+          <t>CHEMBL1962240</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>GSK_PKIS: ALK mean inhibition at 1 uM [Nanosyn]</t>
+          <t>GSK_PKIS: ALK mean inhibition at 0.1 uM [Nanosyn]</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
@@ -7232,7 +7212,7 @@
       </c>
       <c r="X60" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAB0A50&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3E93F0&gt;</t>
         </is>
       </c>
       <c r="Y60" t="inlineStr">
@@ -7244,23 +7224,23 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>CHEMBL480371</t>
+          <t>CHEMBL306865</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>GW853609X</t>
+          <t>GW784752X</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>496.31</v>
+        <v>345.37</v>
       </c>
       <c r="D61" t="n">
-        <v>5.55</v>
+        <v>2.67</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>NC(=O)c1sc(-n2cnc3cc(C(F)(F)F)ccc32)cc1OCc1ccccc1Br</t>
+          <t>COc1cccc(-n2ncc3c(N/N=C/c4ccncc4)ncnc32)c1</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -7279,16 +7259,16 @@
         </is>
       </c>
       <c r="I61" t="n">
-        <v>1.22</v>
+        <v>7.96</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>CHEMBL1962240</t>
+          <t>CHEMBL1962241</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>GSK_PKIS: ALK mean inhibition at 0.1 uM [Nanosyn]</t>
+          <t>GSK_PKIS: ALK mean inhibition at 1 uM [Nanosyn]</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
@@ -7343,7 +7323,7 @@
       </c>
       <c r="X61" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAB0740&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3EA880&gt;</t>
         </is>
       </c>
       <c r="Y61" t="inlineStr">
@@ -7355,23 +7335,23 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>CHEMBL471789</t>
+          <t>CHEMBL1909394</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>GSK-1030059A</t>
+          <t>GW621823A</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>476.48</v>
+        <v>659.61</v>
       </c>
       <c r="D62" t="n">
-        <v>5.9</v>
+        <v>7.26</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>COc1cc2ncn(-c3cc(OCc4ccccc4C(F)(F)F)c(C(C)=O)s3)c2cc1OC</t>
+          <t>CCCN(CCS(C)(=O)=O)Cc1ccc(-c2ccc3ncnc(Nc4ccc(OCc5cccc(F)c5)c(Cl)c4)c3c2)o1</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -7390,7 +7370,7 @@
         </is>
       </c>
       <c r="I62" t="n">
-        <v>2.65</v>
+        <v>1.67</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
@@ -7454,7 +7434,7 @@
       </c>
       <c r="X62" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAB33E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3E8F90&gt;</t>
         </is>
       </c>
       <c r="Y62" t="inlineStr">
@@ -7466,23 +7446,19 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>CHEMBL1909365</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>GW607049C</t>
-        </is>
-      </c>
+          <t>CHEMBL1785003</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr"/>
       <c r="C63" t="n">
-        <v>617.5599999999999</v>
+        <v>486.55</v>
       </c>
       <c r="D63" t="n">
-        <v>6.69</v>
+        <v>4.28</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>COC(=O)Nc1nc2ccc(Sc3ccc(NC(=O)Nc4cc(C(F)(F)F)ccc4F)cc3)cc2[nH]1</t>
+          <t>NC(=O)CCc1ccccc1Oc1nccc(-c2c(-c3ccc(F)cc3)ncn2C2CCNCC2)n1</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -7501,7 +7477,7 @@
         </is>
       </c>
       <c r="I63" t="n">
-        <v>2.57</v>
+        <v>-1.97</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
@@ -7565,7 +7541,7 @@
       </c>
       <c r="X63" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAB2B20&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3E9070&gt;</t>
         </is>
       </c>
       <c r="Y63" t="inlineStr">
@@ -7577,23 +7553,23 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>CHEMBL273564</t>
+          <t>CHEMBL1909408</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>GW795493X</t>
+          <t>GSK-200398A</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>413.36</v>
+        <v>616.15</v>
       </c>
       <c r="D64" t="n">
-        <v>5.13</v>
+        <v>4.38</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Nc1ncnc2occ(-c3ccc(NC(=O)Nc4cccc(C(F)(F)F)c4)cc3)c12</t>
+          <t>O=C(O[C@H]1CN[C@H](C#Cc2cc3ncnc(Nc4ccc5c(cnn5Cc5ccccc5)c4)c3s2)C1)N1CCOCC1</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -7612,16 +7588,16 @@
         </is>
       </c>
       <c r="I64" t="n">
-        <v>6.2</v>
+        <v>0.05</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>CHEMBL1962240</t>
+          <t>CHEMBL1962241</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>GSK_PKIS: ALK mean inhibition at 0.1 uM [Nanosyn]</t>
+          <t>GSK_PKIS: ALK mean inhibition at 1 uM [Nanosyn]</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
@@ -7676,7 +7652,7 @@
       </c>
       <c r="X64" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAB26C0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3EA420&gt;</t>
         </is>
       </c>
       <c r="Y64" t="inlineStr">
@@ -7688,23 +7664,19 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>CHEMBL1909392</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>GW580496A</t>
-        </is>
-      </c>
+          <t>CHEMBL1909401</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr"/>
       <c r="C65" t="n">
-        <v>643.99</v>
+        <v>465.41</v>
       </c>
       <c r="D65" t="n">
-        <v>6.11</v>
+        <v>4.56</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>CS(=O)(=O)CCNCc1ccc(-c2ccc3ncnc(Nc4ccc(OCc5ccccc5)c(Br)c4)c3c2)o1</t>
+          <t>O=C([O-])c1ccc(Oc2nccc(-c3c(-c4ccc(F)cc4)ncn3C3CCNCC3)n2)cc1</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -7723,7 +7695,7 @@
         </is>
       </c>
       <c r="I65" t="n">
-        <v>-0.91</v>
+        <v>4.3</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
@@ -7787,7 +7759,7 @@
       </c>
       <c r="X65" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAB2340&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3EBD10&gt;</t>
         </is>
       </c>
       <c r="Y65" t="inlineStr">
@@ -7799,23 +7771,19 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>CHEMBL1096626</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>GSK-938890A</t>
-        </is>
-      </c>
+          <t>CHEMBL418348</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr"/>
       <c r="C66" t="n">
-        <v>447.5</v>
+        <v>493.56</v>
       </c>
       <c r="D66" t="n">
-        <v>2.28</v>
+        <v>4.27</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>CCn1c(-c2nonc2N)nc2c(C#CC(C)(C)O)nc(OC[C@@H](N)c3ccccc3)cc21</t>
+          <t>CS(=O)(=O)c1ccc(Oc2nccc(-c3c(-c4ccc(F)cc4)ncn3C3CCNCC3)n2)cc1</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -7834,7 +7802,7 @@
         </is>
       </c>
       <c r="I66" t="n">
-        <v>-0.2</v>
+        <v>3.34</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
@@ -7898,7 +7866,7 @@
       </c>
       <c r="X66" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAB0970&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3E9620&gt;</t>
         </is>
       </c>
       <c r="Y66" t="inlineStr">
@@ -7910,19 +7878,19 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>CHEMBL102936</t>
+          <t>CHEMBL275200</t>
         </is>
       </c>
       <c r="B67" t="inlineStr"/>
       <c r="C67" t="n">
-        <v>370.43</v>
+        <v>471.58</v>
       </c>
       <c r="D67" t="n">
-        <v>2.95</v>
+        <v>6.16</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>CS(=O)(=O)Nc1ccc(-c2ccc3c(NC(=O)C4CC4)n[nH]c3c2)cc1</t>
+          <t>CC(C)(C)c1ccc(Oc2nccc(-c3c(-c4ccc(F)cc4)ncn3C3CCNCC3)n2)cc1</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -7941,7 +7909,7 @@
         </is>
       </c>
       <c r="I67" t="n">
-        <v>3.16</v>
+        <v>2</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
@@ -8005,7 +7973,7 @@
       </c>
       <c r="X67" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAB1930&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3E9770&gt;</t>
         </is>
       </c>
       <c r="Y67" t="inlineStr">
@@ -8017,19 +7985,19 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>CHEMBL13972</t>
+          <t>CHEMBL275724</t>
         </is>
       </c>
       <c r="B68" t="inlineStr"/>
       <c r="C68" t="n">
-        <v>440.48</v>
+        <v>458.5</v>
       </c>
       <c r="D68" t="n">
-        <v>4.73</v>
+        <v>3.96</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>N#Cc1ccc(Oc2nccc(-c3c(-c4ccc(F)cc4)ncn3C3CCNCC3)n2)cc1</t>
+          <t>NC(=O)c1ccc(Oc2nccc(-c3c(-c4ccc(F)cc4)ncn3C3CCNCC3)n2)cc1</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -8048,7 +8016,7 @@
         </is>
       </c>
       <c r="I68" t="n">
-        <v>3.58</v>
+        <v>4.85</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
@@ -8112,7 +8080,7 @@
       </c>
       <c r="X68" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAB35A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3EA490&gt;</t>
         </is>
       </c>
       <c r="Y68" t="inlineStr">
@@ -8124,19 +8092,19 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>CHEMBL233002</t>
+          <t>CHEMBL407113</t>
         </is>
       </c>
       <c r="B69" t="inlineStr"/>
       <c r="C69" t="n">
-        <v>350.42</v>
+        <v>356.41</v>
       </c>
       <c r="D69" t="n">
-        <v>5.04</v>
+        <v>2.23</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>N#Cc1c(NC(=O)c2ccc(F)c3ccccc23)sc2c1CCCC2</t>
+          <t>NS(=O)(=O)c1cccc(-c2ccc3c(NC(=O)C4CC4)n[nH]c3c2)c1</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -8155,7 +8123,7 @@
         </is>
       </c>
       <c r="I69" t="n">
-        <v>0.57</v>
+        <v>-1.84</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
@@ -8219,7 +8187,7 @@
       </c>
       <c r="X69" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAB22D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3E99A0&gt;</t>
         </is>
       </c>
       <c r="Y69" t="inlineStr">
@@ -8231,19 +8199,23 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>CHEMBL407113</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr"/>
+          <t>CHEMBL191705</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>GW621431X</t>
+        </is>
+      </c>
       <c r="C70" t="n">
-        <v>356.41</v>
+        <v>400.46</v>
       </c>
       <c r="D70" t="n">
-        <v>2.23</v>
+        <v>4.09</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>NS(=O)(=O)c1cccc(-c2ccc3c(NC(=O)C4CC4)n[nH]c3c2)c1</t>
+          <t>CCS(=O)(=O)c1ccc(OC)c(Nc2ncc(-c3cccc(C(C)=O)c3)o2)c1</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -8262,7 +8234,7 @@
         </is>
       </c>
       <c r="I70" t="n">
-        <v>-1.06</v>
+        <v>2.87</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
@@ -8326,7 +8298,7 @@
       </c>
       <c r="X70" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAB1460&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3EB680&gt;</t>
         </is>
       </c>
       <c r="Y70" t="inlineStr">
@@ -8338,19 +8310,23 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>CHEMBL417804</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr"/>
+          <t>CHEMBL1909374</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>GW709042A</t>
+        </is>
+      </c>
       <c r="C71" t="n">
-        <v>445.5</v>
+        <v>585.95</v>
       </c>
       <c r="D71" t="n">
-        <v>4.87</v>
+        <v>7.41</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>COc1ccccc1Oc1nccc(-c2c(-c3ccc(F)cc3)ncn2C2CCNCC2)n1</t>
+          <t>O=C(Nc1ccc(Oc2ccc3[nH]c(NC(=O)c4ccccc4)nc3c2)cc1)Nc1cc(C(F)(F)F)ccc1F</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -8369,16 +8345,16 @@
         </is>
       </c>
       <c r="I71" t="n">
-        <v>3.92</v>
+        <v>6.42</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>CHEMBL1962240</t>
+          <t>CHEMBL1962241</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>GSK_PKIS: ALK mean inhibition at 0.1 uM [Nanosyn]</t>
+          <t>GSK_PKIS: ALK mean inhibition at 1 uM [Nanosyn]</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
@@ -8433,7 +8409,7 @@
       </c>
       <c r="X71" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAB2DC0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3EA030&gt;</t>
         </is>
       </c>
       <c r="Y71" t="inlineStr">
@@ -8445,23 +8421,23 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>CHEMBL518968</t>
+          <t>CHEMBL222419</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>GSK-1030061A</t>
+          <t>GSK-237701A</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>491.49</v>
+        <v>457.94</v>
       </c>
       <c r="D72" t="n">
-        <v>5.06</v>
+        <v>5</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>CNC(=O)c1sc(-n2cnc3cc(OC)c(OC)cc32)cc1OCc1ccccc1C(F)(F)F</t>
+          <t>COc1cc2ncn(-c3cc(O[C@H](C)c4ccccc4Cl)c(C(N)=O)s3)c2cc1OC</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -8480,7 +8456,7 @@
         </is>
       </c>
       <c r="I72" t="n">
-        <v>3.52</v>
+        <v>4.18</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
@@ -8544,7 +8520,7 @@
       </c>
       <c r="X72" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAB04A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D460AC0&gt;</t>
         </is>
       </c>
       <c r="Y72" t="inlineStr">
@@ -8556,23 +8532,19 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>CHEMBL1909388</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>GW568377A</t>
-        </is>
-      </c>
+          <t>CHEMBL275798</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr"/>
       <c r="C73" t="n">
-        <v>565.1</v>
+        <v>415.47</v>
       </c>
       <c r="D73" t="n">
-        <v>5.35</v>
+        <v>4.86</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>CS(=O)(=O)CCNCc1ccoc1-c1ccc2ncnc(Nc3ccc(OCc4ccccc4)cc3)c2c1</t>
+          <t>Fc1ccc(-c2ncn(C3CCNCC3)c2-c2ccnc(Oc3ccccc3)n2)cc1</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -8591,7 +8563,7 @@
         </is>
       </c>
       <c r="I73" t="n">
-        <v>-0.16</v>
+        <v>-2.73</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
@@ -8655,7 +8627,7 @@
       </c>
       <c r="X73" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAB3290&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D4603C0&gt;</t>
         </is>
       </c>
       <c r="Y73" t="inlineStr">
@@ -8667,23 +8639,19 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>CHEMBL477978</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>GW782907X</t>
-        </is>
-      </c>
+          <t>CHEMBL275168</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr"/>
       <c r="C74" t="n">
-        <v>390.53</v>
+        <v>449.92</v>
       </c>
       <c r="D74" t="n">
-        <v>4.86</v>
+        <v>5.52</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Cc1ccc(C(=O)NC2CCCCC2)cc1-c1ccc(C(=O)NCC2CC2)cc1</t>
+          <t>Fc1ccc(-c2ncn(C3CCNCC3)c2-c2ccnc(Oc3ccc(Cl)cc3)n2)cc1</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -8702,7 +8670,7 @@
         </is>
       </c>
       <c r="I74" t="n">
-        <v>2.91</v>
+        <v>1.35</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
@@ -8766,7 +8734,7 @@
       </c>
       <c r="X74" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAB2730&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D461070&gt;</t>
         </is>
       </c>
       <c r="Y74" t="inlineStr">
@@ -8778,23 +8746,23 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>CHEMBL1794060</t>
+          <t>CHEMBL396107</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>GW575533A</t>
+          <t>GW795486X</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>332.79</v>
+        <v>481.36</v>
       </c>
       <c r="D75" t="n">
-        <v>4.1</v>
+        <v>6.15</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>COc1ccc(Nc2ncc(-c3ccccc3)o2)cc1OC</t>
+          <t>Nc1ncnc2occ(-c3ccc(NC(=O)Nc4cc(C(F)(F)F)cc(C(F)(F)F)c4)cc3)c12</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -8813,7 +8781,7 @@
         </is>
       </c>
       <c r="I75" t="n">
-        <v>1.69</v>
+        <v>2.49</v>
       </c>
       <c r="J75" t="inlineStr">
         <is>
@@ -8877,7 +8845,7 @@
       </c>
       <c r="X75" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAB23B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D462EA0&gt;</t>
         </is>
       </c>
       <c r="Y75" t="inlineStr">
@@ -8889,23 +8857,19 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>CHEMBL243907</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>GW673715X</t>
-        </is>
-      </c>
+          <t>CHEMBL397570</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr"/>
       <c r="C76" t="n">
-        <v>445.48</v>
+        <v>300.36</v>
       </c>
       <c r="D76" t="n">
-        <v>5.74</v>
+        <v>3.89</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>CCc1cccc(NC(=O)Nc2ccc(Oc3ccc4nc(NC(=O)OC)[nH]c4c3)cc2)c1</t>
+          <t>N#Cc1c(NC(=O)c2ccc(F)cc2)sc2c1CCCC2</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -8924,7 +8888,7 @@
         </is>
       </c>
       <c r="I76" t="n">
-        <v>3.68</v>
+        <v>1.01</v>
       </c>
       <c r="J76" t="inlineStr">
         <is>
@@ -8988,7 +8952,7 @@
       </c>
       <c r="X76" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAB0C10&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D463370&gt;</t>
         </is>
       </c>
       <c r="Y76" t="inlineStr">
@@ -9000,23 +8964,23 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>CHEMBL480382</t>
+          <t>CHEMBL522709</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>GSK-312948A</t>
+          <t>GSK-317315A</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>415.5</v>
+        <v>461.47</v>
       </c>
       <c r="D77" t="n">
-        <v>3.84</v>
+        <v>5.35</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>COc1cc2ncn(-c3cc(OCc4cccs4)c(C(N)=O)s3)c2cc1OC</t>
+          <t>COc1ccc2ncn(-c3cc(O[C@H](C)c4ccccc4C(F)(F)F)c(C(N)=O)s3)c2c1</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -9035,7 +8999,7 @@
         </is>
       </c>
       <c r="I77" t="n">
-        <v>-3.76</v>
+        <v>-0.8100000000000001</v>
       </c>
       <c r="J77" t="inlineStr">
         <is>
@@ -9099,7 +9063,7 @@
       </c>
       <c r="X77" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAB38B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D461000&gt;</t>
         </is>
       </c>
       <c r="Y77" t="inlineStr">
@@ -9111,23 +9075,19 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>CHEMBL1909374</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>GW709042A</t>
-        </is>
-      </c>
+          <t>CHEMBL428877</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr"/>
       <c r="C78" t="n">
-        <v>585.95</v>
+        <v>443.53</v>
       </c>
       <c r="D78" t="n">
-        <v>7.41</v>
+        <v>5.43</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>O=C(Nc1ccc(Oc2ccc3[nH]c(NC(=O)c4ccccc4)nc3c2)cc1)Nc1cc(C(F)(F)F)ccc1F</t>
+          <t>CCc1ccc(Oc2nccc(-c3c(-c4ccc(F)cc4)ncn3C3CCNCC3)n2)cc1</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -9146,16 +9106,16 @@
         </is>
       </c>
       <c r="I78" t="n">
-        <v>6.42</v>
+        <v>1.79</v>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>CHEMBL1962241</t>
+          <t>CHEMBL1962240</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>GSK_PKIS: ALK mean inhibition at 1 uM [Nanosyn]</t>
+          <t>GSK_PKIS: ALK mean inhibition at 0.1 uM [Nanosyn]</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
@@ -9210,7 +9170,7 @@
       </c>
       <c r="X78" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAB0EB0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D460F90&gt;</t>
         </is>
       </c>
       <c r="Y78" t="inlineStr">
@@ -9222,23 +9182,23 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>CHEMBL69757</t>
+          <t>CHEMBL1909375</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>GW817394X</t>
+          <t>GSK-614526A</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>362.37</v>
+        <v>525.49</v>
       </c>
       <c r="D79" t="n">
-        <v>3.41</v>
+        <v>1.34</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>COc1cccc(-n2ncc3c(N/N=C/c4cccc(F)c4)ncnc32)c1</t>
+          <t>CCn1c(-c2nonc2N)nc2c(C#CC(C)(C)O)ncc(OC[C@@H]3CCCN3)c21</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -9257,7 +9217,7 @@
         </is>
       </c>
       <c r="I79" t="n">
-        <v>-1.21</v>
+        <v>1.45</v>
       </c>
       <c r="J79" t="inlineStr">
         <is>
@@ -9321,7 +9281,7 @@
       </c>
       <c r="X79" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAB0510&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D461E00&gt;</t>
         </is>
       </c>
       <c r="Y79" t="inlineStr">
@@ -9333,23 +9293,19 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>CHEMBL186213</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>GW827105X</t>
-        </is>
-      </c>
+          <t>CHEMBL157258</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr"/>
       <c r="C80" t="n">
-        <v>462.44</v>
+        <v>383.62</v>
       </c>
       <c r="D80" t="n">
-        <v>5.62</v>
+        <v>3.83</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>COc1ccc(-c2nn3ncccc3c2-c2ccnc(Nc3cccc(C(F)(F)F)c3)n2)cc1</t>
+          <t>O=C1NC(=O)C(c2ccccc2Cl)=C1Nc1cc(Cl)c(O)c(Cl)c1</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -9368,16 +9324,16 @@
         </is>
       </c>
       <c r="I80" t="n">
-        <v>3.3</v>
+        <v>3.85</v>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>CHEMBL1962240</t>
+          <t>CHEMBL1962241</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>GSK_PKIS: ALK mean inhibition at 0.1 uM [Nanosyn]</t>
+          <t>GSK_PKIS: ALK mean inhibition at 1 uM [Nanosyn]</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
@@ -9432,7 +9388,7 @@
       </c>
       <c r="X80" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAB0F20&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D4604A0&gt;</t>
         </is>
       </c>
       <c r="Y80" t="inlineStr">
@@ -9444,19 +9400,23 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>CHEMBL275200</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr"/>
+          <t>CHEMBL233001</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>GW620972X</t>
+        </is>
+      </c>
       <c r="C81" t="n">
-        <v>471.58</v>
+        <v>332.43</v>
       </c>
       <c r="D81" t="n">
-        <v>6.16</v>
+        <v>4.9</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>CC(C)(C)c1ccc(Oc2nccc(-c3c(-c4ccc(F)cc4)ncn3C3CCNCC3)n2)cc1</t>
+          <t>N#Cc1c(NC(=O)c2cccc3ccccc23)sc2c1CCCC2</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -9475,16 +9435,16 @@
         </is>
       </c>
       <c r="I81" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>CHEMBL1962240</t>
+          <t>CHEMBL1962241</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>GSK_PKIS: ALK mean inhibition at 0.1 uM [Nanosyn]</t>
+          <t>GSK_PKIS: ALK mean inhibition at 1 uM [Nanosyn]</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
@@ -9539,7 +9499,7 @@
       </c>
       <c r="X81" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAB1E70&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D4636F0&gt;</t>
         </is>
       </c>
       <c r="Y81" t="inlineStr">
@@ -9551,23 +9511,23 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>CHEMBL205765</t>
+          <t>CHEMBL1794069</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>GW794726X</t>
+          <t>GSK-571989A</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>487.92</v>
+        <v>525.0700000000001</v>
       </c>
       <c r="D82" t="n">
-        <v>5.34</v>
+        <v>5.7</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>CC(=O)Nc1cccc(C#Cc2cncnc2Nc2ccc(OCc3cccc(F)c3)c(Cl)c2)n1</t>
+          <t>C[C@@H](Oc1cc(-n2cnc3ccc(OCC4CCN(C)CC4)cc32)sc1C(N)=O)c1ccccc1Cl</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -9586,16 +9546,16 @@
         </is>
       </c>
       <c r="I82" t="n">
-        <v>-2.6</v>
+        <v>8.57</v>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>CHEMBL1962241</t>
+          <t>CHEMBL1962240</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>GSK_PKIS: ALK mean inhibition at 1 uM [Nanosyn]</t>
+          <t>GSK_PKIS: ALK mean inhibition at 0.1 uM [Nanosyn]</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
@@ -9650,7 +9610,7 @@
       </c>
       <c r="X82" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAB1000&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D461D20&gt;</t>
         </is>
       </c>
       <c r="Y82" t="inlineStr">
@@ -9662,19 +9622,19 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>CHEMBL275724</t>
+          <t>CHEMBL103080</t>
         </is>
       </c>
       <c r="B83" t="inlineStr"/>
       <c r="C83" t="n">
-        <v>458.5</v>
+        <v>370.43</v>
       </c>
       <c r="D83" t="n">
-        <v>3.96</v>
+        <v>2.95</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>NC(=O)c1ccc(Oc2nccc(-c3c(-c4ccc(F)cc4)ncn3C3CCNCC3)n2)cc1</t>
+          <t>CS(=O)(=O)Nc1cccc(-c2ccc3c(NC(=O)C4CC4)n[nH]c3c2)c1</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -9693,7 +9653,7 @@
         </is>
       </c>
       <c r="I83" t="n">
-        <v>4.85</v>
+        <v>0.61</v>
       </c>
       <c r="J83" t="inlineStr">
         <is>
@@ -9757,7 +9717,7 @@
       </c>
       <c r="X83" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAB11C0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D461AF0&gt;</t>
         </is>
       </c>
       <c r="Y83" t="inlineStr">
@@ -9769,23 +9729,23 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>CHEMBL318728</t>
+          <t>CHEMBL205765</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>GW549390X</t>
+          <t>GW794726X</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>236.27</v>
+        <v>487.92</v>
       </c>
       <c r="D84" t="n">
-        <v>4.09</v>
+        <v>5.34</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>c1ccc(Nc2ncc(-c3ccccc3)o2)cc1</t>
+          <t>CC(=O)Nc1cccc(C#Cc2cncnc2Nc2ccc(OCc3cccc(F)c3)c(Cl)c2)n1</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -9804,7 +9764,7 @@
         </is>
       </c>
       <c r="I84" t="n">
-        <v>3.91</v>
+        <v>-2.6</v>
       </c>
       <c r="J84" t="inlineStr">
         <is>
@@ -9868,7 +9828,7 @@
       </c>
       <c r="X84" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAB0430&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D460BA0&gt;</t>
         </is>
       </c>
       <c r="Y84" t="inlineStr">
@@ -9880,23 +9840,23 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>CHEMBL205966</t>
+          <t>CHEMBL243907</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>GW659893X</t>
+          <t>GW673715X</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>444.9</v>
+        <v>445.48</v>
       </c>
       <c r="D85" t="n">
-        <v>5.57</v>
+        <v>5.74</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Nc1ccc(C#Cc2cncnc2Nc2ccc(OCc3cccc(F)c3)c(Cl)c2)cc1</t>
+          <t>CCc1cccc(NC(=O)Nc2ccc(Oc3ccc4nc(NC(=O)OC)[nH]c4c3)cc2)c1</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -9915,7 +9875,7 @@
         </is>
       </c>
       <c r="I85" t="n">
-        <v>3.7</v>
+        <v>1.34</v>
       </c>
       <c r="J85" t="inlineStr">
         <is>
@@ -9979,7 +9939,7 @@
       </c>
       <c r="X85" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAB10E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D460A50&gt;</t>
         </is>
       </c>
       <c r="Y85" t="inlineStr">
@@ -9991,23 +9951,23 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>CHEMBL1909389</t>
+          <t>CHEMBL185939</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>GW574782A</t>
+          <t>GW828525X</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>633.09</v>
+        <v>490.45</v>
       </c>
       <c r="D86" t="n">
-        <v>6.37</v>
+        <v>5.39</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>CS(=O)(=O)CCNCc1ccc(-c2ccc3ncnc(Nc4ccc(OCc5ccccc5)c(C(F)(F)F)c4)c3c2)o1</t>
+          <t>FC(F)(F)c1ccc(-c2nn3ncccc3c2-c2ccnc(Nc3ccc4c(c3)OCCO4)n2)cc1</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -10026,7 +9986,7 @@
         </is>
       </c>
       <c r="I86" t="n">
-        <v>4.27</v>
+        <v>-1.39</v>
       </c>
       <c r="J86" t="inlineStr">
         <is>
@@ -10090,7 +10050,7 @@
       </c>
       <c r="X86" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAB2180&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D461A80&gt;</t>
         </is>
       </c>
       <c r="Y86" t="inlineStr">
@@ -10102,23 +10062,23 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>CHEMBL66292</t>
+          <t>CHEMBL477182</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>PYRAZOLOPYRIMIDINE 2</t>
+          <t>GW769076X</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>422.47</v>
+        <v>454.57</v>
       </c>
       <c r="D87" t="n">
-        <v>2.67</v>
+        <v>5.05</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>COc1cccc(-n2ncc3c(N/N=C/c4ccc(S(C)(=O)=O)cc4)ncnc32)c1</t>
+          <t>Cc1ccc(NC(=O)c2ccnc(N3CCCC3)c2)cc1-c1ccc(C(=O)NCC2CC2)cc1</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -10137,7 +10097,7 @@
         </is>
       </c>
       <c r="I87" t="n">
-        <v>-3.22</v>
+        <v>0.36</v>
       </c>
       <c r="J87" t="inlineStr">
         <is>
@@ -10201,7 +10161,7 @@
       </c>
       <c r="X87" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAB2110&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D463E60&gt;</t>
         </is>
       </c>
       <c r="Y87" t="inlineStr">
@@ -10213,23 +10173,19 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>CHEMBL1909394</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>GW621823A</t>
-        </is>
-      </c>
+          <t>CHEMBL417804</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr"/>
       <c r="C88" t="n">
-        <v>659.61</v>
+        <v>445.5</v>
       </c>
       <c r="D88" t="n">
-        <v>7.26</v>
+        <v>4.87</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>CCCN(CCS(C)(=O)=O)Cc1ccc(-c2ccc3ncnc(Nc4ccc(OCc5cccc(F)c5)c(Cl)c4)c3c2)o1</t>
+          <t>COc1ccccc1Oc1nccc(-c2c(-c3ccc(F)cc3)ncn2C2CCNCC2)n1</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -10248,7 +10204,7 @@
         </is>
       </c>
       <c r="I88" t="n">
-        <v>4.89</v>
+        <v>5.39</v>
       </c>
       <c r="J88" t="inlineStr">
         <is>
@@ -10312,7 +10268,7 @@
       </c>
       <c r="X88" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAB19A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D463450&gt;</t>
         </is>
       </c>
       <c r="Y88" t="inlineStr">
@@ -10324,23 +10280,23 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>CHEMBL1909375</t>
+          <t>CHEMBL372474</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>GSK-614526A</t>
+          <t>GW678313X</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>525.49</v>
+        <v>452.51</v>
       </c>
       <c r="D89" t="n">
-        <v>1.34</v>
+        <v>5.69</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>CCn1c(-c2nonc2N)nc2c(C#CC(C)(C)O)ncc(OC[C@@H]3CCCN3)c21</t>
+          <t>CCS(=O)(=O)c1ccc(OC)c(Nc2ncc(-c3cccc(-c4ccccc4F)c3)o2)c1</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -10359,7 +10315,7 @@
         </is>
       </c>
       <c r="I89" t="n">
-        <v>-0.46</v>
+        <v>1.79</v>
       </c>
       <c r="J89" t="inlineStr">
         <is>
@@ -10423,7 +10379,7 @@
       </c>
       <c r="X89" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAB0820&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D460CF0&gt;</t>
         </is>
       </c>
       <c r="Y89" t="inlineStr">
@@ -10435,19 +10391,23 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>CHEMBL1909401</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr"/>
+          <t>CHEMBL381604</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>GW799251X</t>
+        </is>
+      </c>
       <c r="C90" t="n">
-        <v>465.41</v>
+        <v>446.87</v>
       </c>
       <c r="D90" t="n">
-        <v>4.56</v>
+        <v>4.36</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>O=C([O-])c1ccc(Oc2nccc(-c3c(-c4ccc(F)cc4)ncn3C3CCNCC3)n2)cc1</t>
+          <t>Nc1nccc(C#Cc2cncnc2Nc2ccc(OCc3cccc(F)c3)c(Cl)c2)n1</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -10466,7 +10426,7 @@
         </is>
       </c>
       <c r="I90" t="n">
-        <v>4.3</v>
+        <v>3.59</v>
       </c>
       <c r="J90" t="inlineStr">
         <is>
@@ -10530,7 +10490,7 @@
       </c>
       <c r="X90" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAB1620&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D4622D0&gt;</t>
         </is>
       </c>
       <c r="Y90" t="inlineStr">
@@ -10542,23 +10502,23 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>CHEMBL473629</t>
+          <t>CHEMBL379093</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>GSK-204925A</t>
+          <t>GW651576X</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>423.49</v>
+        <v>429.88</v>
       </c>
       <c r="D91" t="n">
-        <v>3.82</v>
+        <v>5.99</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>COc1cc2ncn(-c3cc(OCCc4ccccc4)c(C(N)=O)s3)c2cc1OC</t>
+          <t>Fc1cccc(COc2ccc(Nc3ncncc3C#Cc3ccccc3)cc2Cl)c1</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -10577,7 +10537,7 @@
         </is>
       </c>
       <c r="I91" t="n">
-        <v>1.95</v>
+        <v>2.52</v>
       </c>
       <c r="J91" t="inlineStr">
         <is>
@@ -10641,7 +10601,7 @@
       </c>
       <c r="X91" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAB1D20&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D460200&gt;</t>
         </is>
       </c>
       <c r="Y91" t="inlineStr">
@@ -10653,19 +10613,23 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>CHEMBL1909407</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr"/>
+          <t>CHEMBL1909365</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>GW607049C</t>
+        </is>
+      </c>
       <c r="C92" t="n">
-        <v>374.85</v>
+        <v>617.5599999999999</v>
       </c>
       <c r="D92" t="n">
-        <v>2.65</v>
+        <v>6.69</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Nc1nccc(-c2c(-c3ccc(F)cc3)ncn2C2CCNCC2)n1</t>
+          <t>COC(=O)Nc1nc2ccc(Sc3ccc(NC(=O)Nc4cc(C(F)(F)F)ccc4F)cc3)cc2[nH]1</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -10684,7 +10648,7 @@
         </is>
       </c>
       <c r="I92" t="n">
-        <v>-2.83</v>
+        <v>1.12</v>
       </c>
       <c r="J92" t="inlineStr">
         <is>
@@ -10748,7 +10712,7 @@
       </c>
       <c r="X92" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAB1AF0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D463B50&gt;</t>
         </is>
       </c>
       <c r="Y92" t="inlineStr">
@@ -10760,23 +10724,23 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>CHEMBL1909408</t>
+          <t>CHEMBL1909373</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>GSK-200398A</t>
+          <t>GW701427A</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>616.15</v>
+        <v>497.9</v>
       </c>
       <c r="D93" t="n">
-        <v>4.38</v>
+        <v>4.88</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>O=C(O[C@H]1CN[C@H](C#Cc2cc3ncnc(Nc4ccc5c(cnn5Cc5ccccc5)c4)c3s2)C1)N1CCOCC1</t>
+          <t>COC(=O)Nc1nc2cc(Oc3ccc(NC(=O)Nc4cccc(C(=O)O)c4)cc3)ccc2[nH]1</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -10795,16 +10759,16 @@
         </is>
       </c>
       <c r="I93" t="n">
-        <v>-0.47</v>
+        <v>-1.37</v>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>CHEMBL1962240</t>
+          <t>CHEMBL1962241</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>GSK_PKIS: ALK mean inhibition at 0.1 uM [Nanosyn]</t>
+          <t>GSK_PKIS: ALK mean inhibition at 1 uM [Nanosyn]</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
@@ -10859,7 +10823,7 @@
       </c>
       <c r="X93" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAB1B60&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D460970&gt;</t>
         </is>
       </c>
       <c r="Y93" t="inlineStr">
@@ -10871,23 +10835,23 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>CHEMBL477182</t>
+          <t>CHEMBL482326</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>GW769076X</t>
+          <t>GSK-1030062A</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>454.57</v>
+        <v>505.52</v>
       </c>
       <c r="D94" t="n">
-        <v>5.05</v>
+        <v>5.4</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Cc1ccc(NC(=O)c2ccnc(N3CCCC3)c2)cc1-c1ccc(C(=O)NCC2CC2)cc1</t>
+          <t>COc1cc2ncn(-c3cc(OCc4ccccc4C(F)(F)F)c(C(=O)N(C)C)s3)c2cc1OC</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -10906,16 +10870,16 @@
         </is>
       </c>
       <c r="I94" t="n">
-        <v>5.33</v>
+        <v>0.27</v>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>CHEMBL1962241</t>
+          <t>CHEMBL1962240</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>GSK_PKIS: ALK mean inhibition at 1 uM [Nanosyn]</t>
+          <t>GSK_PKIS: ALK mean inhibition at 0.1 uM [Nanosyn]</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
@@ -10970,7 +10934,7 @@
       </c>
       <c r="X94" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAB3610&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D462420&gt;</t>
         </is>
       </c>
       <c r="Y94" t="inlineStr">
@@ -10982,23 +10946,23 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>CHEMBL1909370</t>
+          <t>CHEMBL179465</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>GW694234A</t>
+          <t>GW621970X</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>532.78</v>
+        <v>376.41</v>
       </c>
       <c r="D95" t="n">
-        <v>5.94</v>
+        <v>4.03</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>COC(=O)Nc1nc2cc(Oc3ccc(NC(=O)Nc4cccc(Br)c4)cc3)ccc2[nH]1</t>
+          <t>CCS(=O)(=O)c1ccc(OC)c(Nc2ncc(-c3cccc(F)c3)o2)c1</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -11017,7 +10981,7 @@
         </is>
       </c>
       <c r="I95" t="n">
-        <v>3.65</v>
+        <v>7.35</v>
       </c>
       <c r="J95" t="inlineStr">
         <is>
@@ -11081,7 +11045,7 @@
       </c>
       <c r="X95" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAB13F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D460350&gt;</t>
         </is>
       </c>
       <c r="Y95" t="inlineStr">
@@ -11093,23 +11057,23 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>CHEMBL222419</t>
+          <t>CHEMBL1096626</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>GSK-237701A</t>
+          <t>GSK-938890A</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>457.94</v>
+        <v>447.5</v>
       </c>
       <c r="D96" t="n">
-        <v>5</v>
+        <v>2.28</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>COc1cc2ncn(-c3cc(O[C@H](C)c4ccccc4Cl)c(C(N)=O)s3)c2cc1OC</t>
+          <t>CCn1c(-c2nonc2N)nc2c(C#CC(C)(C)O)nc(OC[C@@H](N)c3ccccc3)cc21</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -11128,7 +11092,7 @@
         </is>
       </c>
       <c r="I96" t="n">
-        <v>4.18</v>
+        <v>-0.2</v>
       </c>
       <c r="J96" t="inlineStr">
         <is>
@@ -11192,7 +11156,7 @@
       </c>
       <c r="X96" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAB17E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D463610&gt;</t>
         </is>
       </c>
       <c r="Y96" t="inlineStr">
@@ -11204,19 +11168,19 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>CHEMBL428877</t>
+          <t>CHEMBL13972</t>
         </is>
       </c>
       <c r="B97" t="inlineStr"/>
       <c r="C97" t="n">
-        <v>443.53</v>
+        <v>440.48</v>
       </c>
       <c r="D97" t="n">
-        <v>5.43</v>
+        <v>4.73</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>CCc1ccc(Oc2nccc(-c3c(-c4ccc(F)cc4)ncn3C3CCNCC3)n2)cc1</t>
+          <t>N#Cc1ccc(Oc2nccc(-c3c(-c4ccc(F)cc4)ncn3C3CCNCC3)n2)cc1</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -11235,7 +11199,7 @@
         </is>
       </c>
       <c r="I97" t="n">
-        <v>1.79</v>
+        <v>3.58</v>
       </c>
       <c r="J97" t="inlineStr">
         <is>
@@ -11299,7 +11263,7 @@
       </c>
       <c r="X97" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002517F95B680&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D460120&gt;</t>
         </is>
       </c>
       <c r="Y97" t="inlineStr">
@@ -11311,23 +11275,23 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>CHEMBL191705</t>
+          <t>CHEMBL480382</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>GW621431X</t>
+          <t>GSK-312948A</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>400.46</v>
+        <v>415.5</v>
       </c>
       <c r="D98" t="n">
-        <v>4.09</v>
+        <v>3.84</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>CCS(=O)(=O)c1ccc(OC)c(Nc2ncc(-c3cccc(C(C)=O)c3)o2)c1</t>
+          <t>COc1cc2ncn(-c3cc(OCc4cccs4)c(C(N)=O)s3)c2cc1OC</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -11346,7 +11310,7 @@
         </is>
       </c>
       <c r="I98" t="n">
-        <v>2.87</v>
+        <v>6.72</v>
       </c>
       <c r="J98" t="inlineStr">
         <is>
@@ -11410,7 +11374,7 @@
       </c>
       <c r="X98" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BACFF40&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D462D50&gt;</t>
         </is>
       </c>
       <c r="Y98" t="inlineStr">
@@ -11422,23 +11386,23 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>CHEMBL189415</t>
+          <t>CHEMBL477979</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>GW819077X</t>
+          <t>GW785974X</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>432.41</v>
+        <v>350.46</v>
       </c>
       <c r="D99" t="n">
-        <v>5.62</v>
+        <v>3.94</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>FC(F)(F)c1cccc(Nc2nccc(-c3cnn4nc(-c5ccccc5)ccc34)n2)c1</t>
+          <t>Cc1ccc(C(=O)NC(C)C)cc1-c1ccc(C(=O)NCC2CC2)cc1</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -11457,16 +11421,16 @@
         </is>
       </c>
       <c r="I99" t="n">
-        <v>1.6</v>
+        <v>-4.4</v>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>CHEMBL1962241</t>
+          <t>CHEMBL1962240</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>GSK_PKIS: ALK mean inhibition at 1 uM [Nanosyn]</t>
+          <t>GSK_PKIS: ALK mean inhibition at 0.1 uM [Nanosyn]</t>
         </is>
       </c>
       <c r="L99" t="inlineStr">
@@ -11521,7 +11485,7 @@
       </c>
       <c r="X99" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BACF920&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D4619A0&gt;</t>
         </is>
       </c>
       <c r="Y99" t="inlineStr">
@@ -11533,19 +11497,19 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>CHEMBL1909400</t>
+          <t>CHEMBL13868</t>
         </is>
       </c>
       <c r="B100" t="inlineStr"/>
       <c r="C100" t="n">
-        <v>557.55</v>
+        <v>507.57</v>
       </c>
       <c r="D100" t="n">
-        <v>5.48</v>
+        <v>6.66</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Cc1cccc(Oc2nccc(-c3c(-c4ccc(F)cc4)ncn3C3CCNCC3)n2)c1C</t>
+          <t>Fc1ccc(-c2ncn(C3CCNCC3)c2-c2ccnc(Oc3ccc(Oc4ccccc4)cc3)n2)cc1</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -11564,16 +11528,16 @@
         </is>
       </c>
       <c r="I100" t="n">
-        <v>3.48</v>
+        <v>4.48</v>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>CHEMBL1962240</t>
+          <t>CHEMBL1962241</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>GSK_PKIS: ALK mean inhibition at 0.1 uM [Nanosyn]</t>
+          <t>GSK_PKIS: ALK mean inhibition at 1 uM [Nanosyn]</t>
         </is>
       </c>
       <c r="L100" t="inlineStr">
@@ -11628,7 +11592,7 @@
       </c>
       <c r="X100" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002517F9684A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D4602E0&gt;</t>
         </is>
       </c>
       <c r="Y100" t="inlineStr">
@@ -11640,19 +11604,23 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>CHEMBL1785003</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr"/>
+          <t>CHEMBL65884</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>GW817396X</t>
+        </is>
+      </c>
       <c r="C101" t="n">
-        <v>486.55</v>
+        <v>362.37</v>
       </c>
       <c r="D101" t="n">
-        <v>4.28</v>
+        <v>3.41</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>NC(=O)CCc1ccccc1Oc1nccc(-c2c(-c3ccc(F)cc3)ncn2C2CCNCC2)n1</t>
+          <t>COc1cccc(-n2ncc3c(N/N=C/c4ccc(F)cc4)ncnc32)c1</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -11671,7 +11639,7 @@
         </is>
       </c>
       <c r="I101" t="n">
-        <v>-1.97</v>
+        <v>3.76</v>
       </c>
       <c r="J101" t="inlineStr">
         <is>
@@ -11735,7 +11703,7 @@
       </c>
       <c r="X101" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002517F96A490&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3F3C30&gt;</t>
         </is>
       </c>
       <c r="Y101" t="inlineStr">
@@ -11747,23 +11715,23 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>CHEMBL379093</t>
+          <t>CHEMBL1794062</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>GW651576X</t>
+          <t>GW577921A</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>429.88</v>
+        <v>302.76</v>
       </c>
       <c r="D102" t="n">
-        <v>5.99</v>
+        <v>4.09</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Fc1cccc(COc2ccc(Nc3ncncc3C#Cc3ccccc3)cc2Cl)c1</t>
+          <t>COc1ccccc1Nc1ncc(-c2ccccc2)o1</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -11782,7 +11750,7 @@
         </is>
       </c>
       <c r="I102" t="n">
-        <v>4.64</v>
+        <v>9.470000000000001</v>
       </c>
       <c r="J102" t="inlineStr">
         <is>
@@ -11846,7 +11814,7 @@
       </c>
       <c r="X102" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002517F968660&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3F23B0&gt;</t>
         </is>
       </c>
       <c r="Y102" t="inlineStr">
@@ -11858,19 +11826,23 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>CHEMBL14014</t>
-        </is>
-      </c>
-      <c r="B103" t="inlineStr"/>
+          <t>CHEMBL1909386</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>GW566221A</t>
+        </is>
+      </c>
       <c r="C103" t="n">
-        <v>433.46</v>
+        <v>565.1</v>
       </c>
       <c r="D103" t="n">
-        <v>5</v>
+        <v>5.35</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Fc1ccc(-c2ncn(C3CCNCC3)c2-c2ccnc(Oc3cccc(F)c3)n2)cc1</t>
+          <t>CS(=O)(=O)CCNCc1coc(-c2ccc3ncnc(Nc4ccc(OCc5ccccc5)cc4)c3c2)c1</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -11889,16 +11861,16 @@
         </is>
       </c>
       <c r="I103" t="n">
-        <v>3.75</v>
+        <v>9.68</v>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>CHEMBL1962240</t>
+          <t>CHEMBL1962241</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>GSK_PKIS: ALK mean inhibition at 0.1 uM [Nanosyn]</t>
+          <t>GSK_PKIS: ALK mean inhibition at 1 uM [Nanosyn]</t>
         </is>
       </c>
       <c r="L103" t="inlineStr">
@@ -11953,7 +11925,7 @@
       </c>
       <c r="X103" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002517F96A110&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3F2A40&gt;</t>
         </is>
       </c>
       <c r="Y103" t="inlineStr">
@@ -11965,23 +11937,23 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>CHEMBL361237</t>
+          <t>CHEMBL362155</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>GW785804X</t>
+          <t>GW827102X</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>322.37</v>
+        <v>490.45</v>
       </c>
       <c r="D104" t="n">
-        <v>4.14</v>
+        <v>5.39</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Nc1nc(-c2ccc(F)cc2)c(-c2ccc3ncccc3n2)s1</t>
+          <t>FC(F)(F)c1cccc(-c2nn3ncccc3c2-c2ccnc(Nc3ccc4c(c3)OCCO4)n2)c1</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -12000,7 +11972,7 @@
         </is>
       </c>
       <c r="I104" t="n">
-        <v>3.27</v>
+        <v>2.44</v>
       </c>
       <c r="J104" t="inlineStr">
         <is>
@@ -12064,7 +12036,7 @@
       </c>
       <c r="X104" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002517F969E70&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3F1540&gt;</t>
         </is>
       </c>
       <c r="Y104" t="inlineStr">
@@ -12076,23 +12048,23 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>CHEMBL365248</t>
+          <t>CHEMBL477583</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>GW810372X</t>
+          <t>GW743024X</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>402.34</v>
+        <v>374.44</v>
       </c>
       <c r="D105" t="n">
-        <v>3.84</v>
+        <v>4.65</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>COc1ccc2c(-c3ccnc(Nc4cccc(OC(F)(F)F)c4)n3)cnn2n1</t>
+          <t>Cc1ccc(NC(=O)c2ccoc2)cc1-c1ccc(C(=O)NCC2CC2)cc1</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -12111,7 +12083,7 @@
         </is>
       </c>
       <c r="I105" t="n">
-        <v>5.73</v>
+        <v>4.11</v>
       </c>
       <c r="J105" t="inlineStr">
         <is>
@@ -12175,7 +12147,7 @@
       </c>
       <c r="X105" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002517F96A570&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3F2B20&gt;</t>
         </is>
       </c>
       <c r="Y105" t="inlineStr">
@@ -12187,19 +12159,19 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>CHEMBL275798</t>
+          <t>CHEMBL273611</t>
         </is>
       </c>
       <c r="B106" t="inlineStr"/>
       <c r="C106" t="n">
-        <v>415.47</v>
+        <v>459.48</v>
       </c>
       <c r="D106" t="n">
-        <v>4.86</v>
+        <v>4.59</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Fc1ccc(-c2ncn(C3CCNCC3)c2-c2ccnc(Oc3ccccc3)n2)cc1</t>
+          <t>Fc1ccc(-c2ncn(C3CCNCC3)c2-c2ccnc(Oc3ccc4c(c3)OCO4)n2)cc1</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -12218,7 +12190,7 @@
         </is>
       </c>
       <c r="I106" t="n">
-        <v>-2.73</v>
+        <v>4.91</v>
       </c>
       <c r="J106" t="inlineStr">
         <is>
@@ -12282,7 +12254,7 @@
       </c>
       <c r="X106" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002517F968F90&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3F1CB0&gt;</t>
         </is>
       </c>
       <c r="Y106" t="inlineStr">
@@ -12294,19 +12266,19 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>CHEMBL1785004</t>
+          <t>CHEMBL275666</t>
         </is>
       </c>
       <c r="B107" t="inlineStr"/>
       <c r="C107" t="n">
-        <v>451.45</v>
+        <v>483.47</v>
       </c>
       <c r="D107" t="n">
-        <v>5.14</v>
+        <v>5.88</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Fc1ccc(-c2ncn(C3CCNCC3)c2-c2ccnc(Oc3ccc(F)c(F)c3)n2)cc1</t>
+          <t>Fc1ccc(-c2ncn(C3CCNCC3)c2-c2ccnc(Oc3cccc(C(F)(F)F)c3)n2)cc1</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -12325,16 +12297,16 @@
         </is>
       </c>
       <c r="I107" t="n">
-        <v>-1</v>
+        <v>5.34</v>
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>CHEMBL1962240</t>
+          <t>CHEMBL1962241</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>GSK_PKIS: ALK mean inhibition at 0.1 uM [Nanosyn]</t>
+          <t>GSK_PKIS: ALK mean inhibition at 1 uM [Nanosyn]</t>
         </is>
       </c>
       <c r="L107" t="inlineStr">
@@ -12389,7 +12361,7 @@
       </c>
       <c r="X107" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002517F968900&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3F2D50&gt;</t>
         </is>
       </c>
       <c r="Y107" t="inlineStr">
@@ -12401,19 +12373,23 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>CHEMBL275168</t>
-        </is>
-      </c>
-      <c r="B108" t="inlineStr"/>
+          <t>CHEMBL466412</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>GSK-238063A</t>
+        </is>
+      </c>
       <c r="C108" t="n">
-        <v>449.92</v>
+        <v>566.0599999999999</v>
       </c>
       <c r="D108" t="n">
-        <v>5.52</v>
+        <v>5.59</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Fc1ccc(-c2ncn(C3CCNCC3)c2-c2ccnc(Oc3ccc(Cl)cc3)n2)cc1</t>
+          <t>CN(C)C(=O)O[C@@H]1CN[C@@H](C#Cc2cc3ncnc(Nc4ccc(OCc5cccc(F)c5)c(Cl)c4)c3s2)C1</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -12432,7 +12408,7 @@
         </is>
       </c>
       <c r="I108" t="n">
-        <v>1.35</v>
+        <v>1.27</v>
       </c>
       <c r="J108" t="inlineStr">
         <is>
@@ -12496,7 +12472,7 @@
       </c>
       <c r="X108" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002517F96AB20&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3F1460&gt;</t>
         </is>
       </c>
       <c r="Y108" t="inlineStr">
@@ -12508,19 +12484,23 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>CHEMBL418348</t>
-        </is>
-      </c>
-      <c r="B109" t="inlineStr"/>
+          <t>CHEMBL66292</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>PYRAZOLOPYRIMIDINE 2</t>
+        </is>
+      </c>
       <c r="C109" t="n">
-        <v>493.56</v>
+        <v>422.47</v>
       </c>
       <c r="D109" t="n">
-        <v>4.27</v>
+        <v>2.67</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>CS(=O)(=O)c1ccc(Oc2nccc(-c3c(-c4ccc(F)cc4)ncn3C3CCNCC3)n2)cc1</t>
+          <t>COc1cccc(-n2ncc3c(N/N=C/c4ccc(S(C)(=O)=O)cc4)ncnc32)c1</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -12539,16 +12519,16 @@
         </is>
       </c>
       <c r="I109" t="n">
-        <v>3.34</v>
+        <v>-1.6</v>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>CHEMBL1962240</t>
+          <t>CHEMBL1962241</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>GSK_PKIS: ALK mean inhibition at 0.1 uM [Nanosyn]</t>
+          <t>GSK_PKIS: ALK mean inhibition at 1 uM [Nanosyn]</t>
         </is>
       </c>
       <c r="L109" t="inlineStr">
@@ -12603,7 +12583,7 @@
       </c>
       <c r="X109" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002517F969CB0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3F27A0&gt;</t>
         </is>
       </c>
       <c r="Y109" t="inlineStr">
@@ -12615,23 +12595,19 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>CHEMBL372474</t>
-        </is>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>GW678313X</t>
-        </is>
-      </c>
+          <t>CHEMBL4088144</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr"/>
       <c r="C110" t="n">
-        <v>452.51</v>
+        <v>399.93</v>
       </c>
       <c r="D110" t="n">
-        <v>5.69</v>
+        <v>4.49</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>CCS(=O)(=O)c1ccc(OC)c(Nc2ncc(-c3cccc(-c4ccccc4F)c3)o2)c1</t>
+          <t>CC(C)n1cnc2c(Nc3cccc(Cl)c3)nc(N[C@H]3CCCC[C@@H]3N)nc21</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -12650,16 +12626,16 @@
         </is>
       </c>
       <c r="I110" t="n">
-        <v>1.79</v>
+        <v>7</v>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>CHEMBL1962240</t>
+          <t>CHEMBL4003777</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>GSK_PKIS: ALK mean inhibition at 0.1 uM [Nanosyn]</t>
+          <t>Inhibition of human ALK using casein as substrate in presence of [gamma-33P]ATP at 1 uM after 40 mins by scintillation counter method</t>
         </is>
       </c>
       <c r="L110" t="inlineStr">
@@ -12674,7 +12650,7 @@
       </c>
       <c r="N110" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Homo sapiens</t>
         </is>
       </c>
       <c r="O110" t="inlineStr">
@@ -12699,22 +12675,28 @@
       </c>
       <c r="S110" t="inlineStr">
         <is>
-          <t>CHEMBL1961873</t>
+          <t>CHEMBL4002601</t>
         </is>
       </c>
       <c r="T110" t="inlineStr">
         <is>
-          <t>GSK Published Kinase Inhibitor Set</t>
-        </is>
-      </c>
-      <c r="U110" t="inlineStr"/>
-      <c r="V110" t="inlineStr"/>
+          <t>Scientific Literature</t>
+        </is>
+      </c>
+      <c r="U110" t="inlineStr">
+        <is>
+          <t>Bioorg Med Chem Lett</t>
+        </is>
+      </c>
+      <c r="V110" t="n">
+        <v>2017</v>
+      </c>
       <c r="W110" t="n">
         <v>0</v>
       </c>
       <c r="X110" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002517F968AC0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3F1690&gt;</t>
         </is>
       </c>
       <c r="Y110" t="inlineStr">
@@ -12726,23 +12708,23 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>CHEMBL207247</t>
+          <t>CHEMBL1794073</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>GW807930X</t>
+          <t>GW770220A</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>500.96</v>
+        <v>459.96</v>
       </c>
       <c r="D111" t="n">
-        <v>5.63</v>
+        <v>2.83</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>CC(=O)NCc1cccc(C#Cc2cncnc2Nc2ccc(OCc3cccc(F)c3)c(Cl)c2)c1</t>
+          <t>Cc1nn(C)c2cc(N(C)c3ccnc(Nc4cccc(S(N)(=O)=O)c4)n3)ccc12</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -12761,7 +12743,7 @@
         </is>
       </c>
       <c r="I111" t="n">
-        <v>0.2</v>
+        <v>19.16</v>
       </c>
       <c r="J111" t="inlineStr">
         <is>
@@ -12825,7 +12807,7 @@
       </c>
       <c r="X111" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAE3680&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3F3220&gt;</t>
         </is>
       </c>
       <c r="Y111" t="inlineStr">
@@ -12837,19 +12819,23 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>CHEMBL273611</t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr"/>
+          <t>CHEMBL521806</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>GSK-237700A</t>
+        </is>
+      </c>
       <c r="C112" t="n">
-        <v>459.48</v>
+        <v>457.94</v>
       </c>
       <c r="D112" t="n">
-        <v>4.59</v>
+        <v>5</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Fc1ccc(-c2ncn(C3CCNCC3)c2-c2ccnc(Oc3ccc4c(c3)OCO4)n2)cc1</t>
+          <t>COc1cc2ncn(-c3cc(O[C@@H](C)c4ccccc4Cl)c(C(N)=O)s3)c2cc1OC</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -12868,16 +12854,16 @@
         </is>
       </c>
       <c r="I112" t="n">
-        <v>6.26</v>
+        <v>3.25</v>
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>CHEMBL1962241</t>
+          <t>CHEMBL1962240</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>GSK_PKIS: ALK mean inhibition at 1 uM [Nanosyn]</t>
+          <t>GSK_PKIS: ALK mean inhibition at 0.1 uM [Nanosyn]</t>
         </is>
       </c>
       <c r="L112" t="inlineStr">
@@ -12932,7 +12918,7 @@
       </c>
       <c r="X112" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAE2570&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3F15B0&gt;</t>
         </is>
       </c>
       <c r="Y112" t="inlineStr">
@@ -12944,23 +12930,23 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>CHEMBL179453</t>
+          <t>CHEMBL529066</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>GW622055X</t>
+          <t>GW574783B</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>392.86</v>
+        <v>599.54</v>
       </c>
       <c r="D113" t="n">
-        <v>4.54</v>
+        <v>6</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>CCS(=O)(=O)c1ccc(OC)c(Nc2ncc(-c3ccccc3Cl)o2)c1</t>
+          <t>CS(=O)(=O)CCNCc1ccc(-c2ccc3ncnc(Nc4ccc(OCc5ccccc5)c(Cl)c4)c3c2)o1</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -12979,7 +12965,7 @@
         </is>
       </c>
       <c r="I113" t="n">
-        <v>5.19</v>
+        <v>4.89</v>
       </c>
       <c r="J113" t="inlineStr">
         <is>
@@ -13043,7 +13029,7 @@
       </c>
       <c r="X113" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAE1E70&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3817E0&gt;</t>
         </is>
       </c>
       <c r="Y113" t="inlineStr">
@@ -13055,23 +13041,19 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>CHEMBL521806</t>
-        </is>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>GSK-237700A</t>
-        </is>
-      </c>
+          <t>CHEMBL1785004</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr"/>
       <c r="C114" t="n">
-        <v>457.94</v>
+        <v>451.45</v>
       </c>
       <c r="D114" t="n">
-        <v>5</v>
+        <v>5.14</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>COc1cc2ncn(-c3cc(O[C@@H](C)c4ccccc4Cl)c(C(N)=O)s3)c2cc1OC</t>
+          <t>Fc1ccc(-c2ncn(C3CCNCC3)c2-c2ccnc(Oc3ccc(F)c(F)c3)n2)cc1</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -13090,7 +13072,7 @@
         </is>
       </c>
       <c r="I114" t="n">
-        <v>3.25</v>
+        <v>-1</v>
       </c>
       <c r="J114" t="inlineStr">
         <is>
@@ -13154,7 +13136,7 @@
       </c>
       <c r="X114" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAE1700&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D382340&gt;</t>
         </is>
       </c>
       <c r="Y114" t="inlineStr">
@@ -13166,19 +13148,23 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>CHEMBL4852926</t>
-        </is>
-      </c>
-      <c r="B115" t="inlineStr"/>
+          <t>CHEMBL512076</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>GSK-192082A</t>
+        </is>
+      </c>
       <c r="C115" t="n">
-        <v>482.97</v>
+        <v>566.0599999999999</v>
       </c>
       <c r="D115" t="n">
-        <v>5.4</v>
+        <v>5.63</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>O=C(CCCCCCC(=O)Nc1ccc(Nc2ncc(Cl)c(Nc3ccccc3)n2)cc1)NO</t>
+          <t>CCNC(=O)O[C@H]1CN[C@H](C#Cc2cc3ncnc(Nc4ccc(OCc5cccc(F)c5)c(Cl)c4)c3s2)C1</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -13197,16 +13183,16 @@
         </is>
       </c>
       <c r="I115" t="n">
-        <v>4.9</v>
+        <v>1.85</v>
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>CHEMBL4828941</t>
+          <t>CHEMBL1962240</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>Inhibition of ALK (unknown origin) at 10 nM preincubated for 10 mins followed by addition of substrate and ATP for 25 mins by caliper EZ reader method</t>
+          <t>GSK_PKIS: ALK mean inhibition at 0.1 uM [Nanosyn]</t>
         </is>
       </c>
       <c r="L115" t="inlineStr">
@@ -13221,7 +13207,7 @@
       </c>
       <c r="N115" t="inlineStr">
         <is>
-          <t>Homo sapiens</t>
+          <t>None</t>
         </is>
       </c>
       <c r="O115" t="inlineStr">
@@ -13246,28 +13232,22 @@
       </c>
       <c r="S115" t="inlineStr">
         <is>
-          <t>CHEMBL4828709</t>
+          <t>CHEMBL1961873</t>
         </is>
       </c>
       <c r="T115" t="inlineStr">
         <is>
-          <t>Scientific Literature</t>
-        </is>
-      </c>
-      <c r="U115" t="inlineStr">
-        <is>
-          <t>Eur J Med Chem</t>
-        </is>
-      </c>
-      <c r="V115" t="n">
-        <v>2021</v>
-      </c>
+          <t>GSK Published Kinase Inhibitor Set</t>
+        </is>
+      </c>
+      <c r="U115" t="inlineStr"/>
+      <c r="V115" t="inlineStr"/>
       <c r="W115" t="n">
         <v>0</v>
       </c>
       <c r="X115" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAE2C70&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D381E00&gt;</t>
         </is>
       </c>
       <c r="Y115" t="inlineStr">
@@ -13279,19 +13259,23 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>CHEMBL4871427</t>
-        </is>
-      </c>
-      <c r="B116" t="inlineStr"/>
+          <t>CHEMBL212250</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>GW615311X</t>
+        </is>
+      </c>
       <c r="C116" t="n">
-        <v>517.42</v>
+        <v>644.12</v>
       </c>
       <c r="D116" t="n">
-        <v>6.06</v>
+        <v>8</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>O=C(CCCCCCC(=O)Nc1ccc(Nc2ncc(Cl)c(Nc3ccccc3Cl)n2)cc1)NO</t>
+          <t>O=S(=O)(CCOCc1ccc(-c2ccc3ncnc(Nc4ccc(OCc5cccc(F)c5)c(Cl)c4)c3c2)o1)c1ccccc1</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
@@ -13310,16 +13294,16 @@
         </is>
       </c>
       <c r="I116" t="n">
-        <v>3.1</v>
+        <v>0.65</v>
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>CHEMBL4828941</t>
+          <t>CHEMBL1962240</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>Inhibition of ALK (unknown origin) at 10 nM preincubated for 10 mins followed by addition of substrate and ATP for 25 mins by caliper EZ reader method</t>
+          <t>GSK_PKIS: ALK mean inhibition at 0.1 uM [Nanosyn]</t>
         </is>
       </c>
       <c r="L116" t="inlineStr">
@@ -13334,7 +13318,7 @@
       </c>
       <c r="N116" t="inlineStr">
         <is>
-          <t>Homo sapiens</t>
+          <t>None</t>
         </is>
       </c>
       <c r="O116" t="inlineStr">
@@ -13359,28 +13343,22 @@
       </c>
       <c r="S116" t="inlineStr">
         <is>
-          <t>CHEMBL4828709</t>
+          <t>CHEMBL1961873</t>
         </is>
       </c>
       <c r="T116" t="inlineStr">
         <is>
-          <t>Scientific Literature</t>
-        </is>
-      </c>
-      <c r="U116" t="inlineStr">
-        <is>
-          <t>Eur J Med Chem</t>
-        </is>
-      </c>
-      <c r="V116" t="n">
-        <v>2021</v>
-      </c>
+          <t>GSK Published Kinase Inhibitor Set</t>
+        </is>
+      </c>
+      <c r="U116" t="inlineStr"/>
+      <c r="V116" t="inlineStr"/>
       <c r="W116" t="n">
         <v>0</v>
       </c>
       <c r="X116" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAE0F90&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3818C0&gt;</t>
         </is>
       </c>
       <c r="Y116" t="inlineStr">
@@ -13392,19 +13370,19 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>CHEMBL4858028</t>
+          <t>CHEMBL1909400</t>
         </is>
       </c>
       <c r="B117" t="inlineStr"/>
       <c r="C117" t="n">
-        <v>527.03</v>
+        <v>557.55</v>
       </c>
       <c r="D117" t="n">
-        <v>5.72</v>
+        <v>5.48</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>COc1ccc(C)c(Nc2nc(Nc3ccc(NC(=O)CCCCCCC(=O)NO)cc3)ncc2Cl)c1</t>
+          <t>Cc1cccc(Oc2nccc(-c3c(-c4ccc(F)cc4)ncn3C3CCNCC3)n2)c1C</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -13423,16 +13401,16 @@
         </is>
       </c>
       <c r="I117" t="n">
-        <v>4.9</v>
+        <v>4.68</v>
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>CHEMBL4828942</t>
+          <t>CHEMBL1962241</t>
         </is>
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>Inhibition of ALK (unknown origin) at 100 nM preincubated for 10 mins followed by addition of substrate and ATP for 25 mins by caliper EZ reader method</t>
+          <t>GSK_PKIS: ALK mean inhibition at 1 uM [Nanosyn]</t>
         </is>
       </c>
       <c r="L117" t="inlineStr">
@@ -13447,7 +13425,7 @@
       </c>
       <c r="N117" t="inlineStr">
         <is>
-          <t>Homo sapiens</t>
+          <t>None</t>
         </is>
       </c>
       <c r="O117" t="inlineStr">
@@ -13472,28 +13450,22 @@
       </c>
       <c r="S117" t="inlineStr">
         <is>
-          <t>CHEMBL4828709</t>
+          <t>CHEMBL1961873</t>
         </is>
       </c>
       <c r="T117" t="inlineStr">
         <is>
-          <t>Scientific Literature</t>
-        </is>
-      </c>
-      <c r="U117" t="inlineStr">
-        <is>
-          <t>Eur J Med Chem</t>
-        </is>
-      </c>
-      <c r="V117" t="n">
-        <v>2021</v>
-      </c>
+          <t>GSK Published Kinase Inhibitor Set</t>
+        </is>
+      </c>
+      <c r="U117" t="inlineStr"/>
+      <c r="V117" t="inlineStr"/>
       <c r="W117" t="n">
         <v>0</v>
       </c>
       <c r="X117" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAE2E30&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D381C40&gt;</t>
         </is>
       </c>
       <c r="Y117" t="inlineStr">
@@ -13505,19 +13477,23 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>CHEMBL275666</t>
-        </is>
-      </c>
-      <c r="B118" t="inlineStr"/>
+          <t>CHEMBL518968</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>GSK-1030061A</t>
+        </is>
+      </c>
       <c r="C118" t="n">
-        <v>483.47</v>
+        <v>491.49</v>
       </c>
       <c r="D118" t="n">
-        <v>5.88</v>
+        <v>5.06</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Fc1ccc(-c2ncn(C3CCNCC3)c2-c2ccnc(Oc3cccc(C(F)(F)F)c3)n2)cc1</t>
+          <t>CNC(=O)c1sc(-n2cnc3cc(OC)c(OC)cc32)cc1OCc1ccccc1C(F)(F)F</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -13536,7 +13512,7 @@
         </is>
       </c>
       <c r="I118" t="n">
-        <v>5.34</v>
+        <v>5.76</v>
       </c>
       <c r="J118" t="inlineStr">
         <is>
@@ -13600,7 +13576,7 @@
       </c>
       <c r="X118" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAE0C80&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D382490&gt;</t>
         </is>
       </c>
       <c r="Y118" t="inlineStr">
@@ -13612,19 +13588,19 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>CHEMBL4867827</t>
+          <t>CHEMBL4436746</t>
         </is>
       </c>
       <c r="B119" t="inlineStr"/>
       <c r="C119" t="n">
-        <v>561.87</v>
+        <v>631.96</v>
       </c>
       <c r="D119" t="n">
-        <v>6.16</v>
+        <v>8.94</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>O=C(CCCCCCC(=O)Nc1ccc(Nc2ncc(Cl)c(Nc3ccccc3Br)n2)cc1)NO</t>
+          <t>COc1cc(Cl)cc(-c2nn(-c3cccc(NC(=O)Nc4cc(C(F)(F)F)cc(C(F)(F)F)c4)c3)cc2-c2ccncc2)c1</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -13643,16 +13619,16 @@
         </is>
       </c>
       <c r="I119" t="n">
-        <v>0.2</v>
+        <v>-3.77</v>
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>CHEMBL4828941</t>
+          <t>CHEMBL4309576</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>Inhibition of ALK (unknown origin) at 10 nM preincubated for 10 mins followed by addition of substrate and ATP for 25 mins by caliper EZ reader method</t>
+          <t>Inhibition of human ALK at 10 uM using poly[Glu:Tyr] (4:1) as substrate after 40 mins in presence of [gamma33P]ATP by scintillation counting method relative to control</t>
         </is>
       </c>
       <c r="L119" t="inlineStr">
@@ -13692,7 +13668,7 @@
       </c>
       <c r="S119" t="inlineStr">
         <is>
-          <t>CHEMBL4828709</t>
+          <t>CHEMBL4308841</t>
         </is>
       </c>
       <c r="T119" t="inlineStr">
@@ -13706,14 +13682,14 @@
         </is>
       </c>
       <c r="V119" t="n">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="W119" t="n">
         <v>0</v>
       </c>
       <c r="X119" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAE3DF0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3822D0&gt;</t>
         </is>
       </c>
       <c r="Y119" t="inlineStr">
@@ -13725,23 +13701,23 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>CHEMBL212250</t>
+          <t>CHEMBL1909389</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>GW615311X</t>
+          <t>GW574782A</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>644.12</v>
+        <v>633.09</v>
       </c>
       <c r="D120" t="n">
-        <v>8</v>
+        <v>6.37</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>O=S(=O)(CCOCc1ccc(-c2ccc3ncnc(Nc4ccc(OCc5cccc(F)c5)c(Cl)c4)c3c2)o1)c1ccccc1</t>
+          <t>CS(=O)(=O)CCNCc1ccc(-c2ccc3ncnc(Nc4ccc(OCc5ccccc5)c(C(F)(F)F)c4)c3c2)o1</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -13760,16 +13736,16 @@
         </is>
       </c>
       <c r="I120" t="n">
-        <v>3.74</v>
+        <v>4.27</v>
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>CHEMBL1962241</t>
+          <t>CHEMBL1962240</t>
         </is>
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>GSK_PKIS: ALK mean inhibition at 1 uM [Nanosyn]</t>
+          <t>GSK_PKIS: ALK mean inhibition at 0.1 uM [Nanosyn]</t>
         </is>
       </c>
       <c r="L120" t="inlineStr">
@@ -13824,7 +13800,7 @@
       </c>
       <c r="X120" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAE3140&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D383D10&gt;</t>
         </is>
       </c>
       <c r="Y120" t="inlineStr">
@@ -13836,19 +13812,19 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>CHEMBL4853378</t>
+          <t>CHEMBL4867827</t>
         </is>
       </c>
       <c r="B121" t="inlineStr"/>
       <c r="C121" t="n">
-        <v>497</v>
+        <v>561.87</v>
       </c>
       <c r="D121" t="n">
-        <v>5.71</v>
+        <v>6.16</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Cc1ccc(Nc2nc(Nc3ccc(NC(=O)CCCCCCC(=O)NO)cc3)ncc2Cl)cc1</t>
+          <t>O=C(CCCCCCC(=O)Nc1ccc(Nc2ncc(Cl)c(Nc3ccccc3Br)n2)cc1)NO</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -13867,7 +13843,7 @@
         </is>
       </c>
       <c r="I121" t="n">
-        <v>7.2</v>
+        <v>0.2</v>
       </c>
       <c r="J121" t="inlineStr">
         <is>
@@ -13937,7 +13913,7 @@
       </c>
       <c r="X121" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAE1070&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D383F40&gt;</t>
         </is>
       </c>
       <c r="Y121" t="inlineStr">
@@ -13949,19 +13925,19 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>CHEMBL4851204</t>
+          <t>CHEMBL4850683</t>
         </is>
       </c>
       <c r="B122" t="inlineStr"/>
       <c r="C122" t="n">
-        <v>543.02</v>
+        <v>497</v>
       </c>
       <c r="D122" t="n">
-        <v>5.42</v>
+        <v>5.71</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>COc1ccc(Nc2nc(Nc3ccc(NC(=O)CCCCCCC(=O)NO)cc3)ncc2Cl)cc1OC</t>
+          <t>Cc1cccc(Nc2nc(Nc3ccc(NC(=O)CCCCCCC(=O)NO)cc3)ncc2Cl)c1</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -13980,7 +13956,7 @@
         </is>
       </c>
       <c r="I122" t="n">
-        <v>3.1</v>
+        <v>0.2</v>
       </c>
       <c r="J122" t="inlineStr">
         <is>
@@ -14050,7 +14026,7 @@
       </c>
       <c r="X122" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAE0B30&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D383ED0&gt;</t>
         </is>
       </c>
       <c r="Y122" t="inlineStr">
@@ -14062,23 +14038,19 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>CHEMBL1909391</t>
-        </is>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>GW576924A</t>
-        </is>
-      </c>
+          <t>CHEMBL4851204</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr"/>
       <c r="C123" t="n">
-        <v>579.1</v>
+        <v>543.02</v>
       </c>
       <c r="D123" t="n">
-        <v>5.92</v>
+        <v>5.42</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>[O-][S+]1CCN(Cc2ccc(-c3ccc4ncnc(Nc5ccc(OCc6ccccc6)c(F)c5)c4c3)o2)CC1</t>
+          <t>COc1ccc(Nc2nc(Nc3ccc(NC(=O)CCCCCCC(=O)NO)cc3)ncc2Cl)cc1OC</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
@@ -14097,16 +14069,16 @@
         </is>
       </c>
       <c r="I123" t="n">
-        <v>1.75</v>
+        <v>3.1</v>
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>CHEMBL1962240</t>
+          <t>CHEMBL4828941</t>
         </is>
       </c>
       <c r="K123" t="inlineStr">
         <is>
-          <t>GSK_PKIS: ALK mean inhibition at 0.1 uM [Nanosyn]</t>
+          <t>Inhibition of ALK (unknown origin) at 10 nM preincubated for 10 mins followed by addition of substrate and ATP for 25 mins by caliper EZ reader method</t>
         </is>
       </c>
       <c r="L123" t="inlineStr">
@@ -14121,7 +14093,7 @@
       </c>
       <c r="N123" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Homo sapiens</t>
         </is>
       </c>
       <c r="O123" t="inlineStr">
@@ -14146,22 +14118,28 @@
       </c>
       <c r="S123" t="inlineStr">
         <is>
-          <t>CHEMBL1961873</t>
+          <t>CHEMBL4828709</t>
         </is>
       </c>
       <c r="T123" t="inlineStr">
         <is>
-          <t>GSK Published Kinase Inhibitor Set</t>
-        </is>
-      </c>
-      <c r="U123" t="inlineStr"/>
-      <c r="V123" t="inlineStr"/>
+          <t>Scientific Literature</t>
+        </is>
+      </c>
+      <c r="U123" t="inlineStr">
+        <is>
+          <t>Eur J Med Chem</t>
+        </is>
+      </c>
+      <c r="V123" t="n">
+        <v>2021</v>
+      </c>
       <c r="W123" t="n">
         <v>0</v>
       </c>
       <c r="X123" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAE11C0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D382260&gt;</t>
         </is>
       </c>
       <c r="Y123" t="inlineStr">

--- a/Dataset/ChEMBL/ALK/ALK_preprocessing/ALK_test.xlsx
+++ b/Dataset/ChEMBL/ALK/ALK_preprocessing/ALK_test.xlsx
@@ -666,7 +666,7 @@
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D4553F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E8030413F0&gt;</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
@@ -781,7 +781,7 @@
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D455A10&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E803041A10&gt;</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
@@ -896,7 +896,7 @@
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D454510&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E803040510&gt;</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D4577D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E8030437D0&gt;</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
@@ -1126,7 +1126,7 @@
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D454F90&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E803040F90&gt;</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
@@ -1241,7 +1241,7 @@
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D454120&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E803040120&gt;</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
@@ -1356,7 +1356,7 @@
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D4552A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E8030412A0&gt;</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
@@ -1471,7 +1471,7 @@
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D454CF0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E803040CF0&gt;</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
@@ -1586,7 +1586,7 @@
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D456FF0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E803042FF0&gt;</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
@@ -1697,7 +1697,7 @@
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D457060&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E803043060&gt;</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
@@ -1808,7 +1808,7 @@
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D4574C0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E8030434C0&gt;</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
@@ -1923,7 +1923,7 @@
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D456650&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E803042650&gt;</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
@@ -2034,7 +2034,7 @@
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D455FC0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E803041FC0&gt;</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
@@ -2149,7 +2149,7 @@
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D457F40&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E803043F40&gt;</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
@@ -2264,7 +2264,7 @@
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D457680&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E803043680&gt;</t>
         </is>
       </c>
       <c r="Y16" t="inlineStr">
@@ -2379,7 +2379,7 @@
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D455540&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E803041540&gt;</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
@@ -2494,7 +2494,7 @@
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D4555B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E8030415B0&gt;</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
@@ -2609,7 +2609,7 @@
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D456810&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E803042810&gt;</t>
         </is>
       </c>
       <c r="Y19" t="inlineStr">
@@ -2724,7 +2724,7 @@
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D456B20&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E803042B20&gt;</t>
         </is>
       </c>
       <c r="Y20" t="inlineStr">
@@ -2835,7 +2835,7 @@
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D456570&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E803042570&gt;</t>
         </is>
       </c>
       <c r="Y21" t="inlineStr">
@@ -2950,7 +2950,7 @@
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D455770&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E803041770&gt;</t>
         </is>
       </c>
       <c r="Y22" t="inlineStr">
@@ -3065,7 +3065,7 @@
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D456340&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E803042340&gt;</t>
         </is>
       </c>
       <c r="Y23" t="inlineStr">
@@ -3180,7 +3180,7 @@
       </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D455F50&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E803041F50&gt;</t>
         </is>
       </c>
       <c r="Y24" t="inlineStr">
@@ -3295,7 +3295,7 @@
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D456730&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E803042730&gt;</t>
         </is>
       </c>
       <c r="Y25" t="inlineStr">
@@ -3406,7 +3406,7 @@
       </c>
       <c r="X26" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D4562D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E8030422D0&gt;</t>
         </is>
       </c>
       <c r="Y26" t="inlineStr">
@@ -3517,7 +3517,7 @@
       </c>
       <c r="X27" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D456260&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E803042260&gt;</t>
         </is>
       </c>
       <c r="Y27" t="inlineStr">
@@ -3632,7 +3632,7 @@
       </c>
       <c r="X28" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D4545F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E8030405F0&gt;</t>
         </is>
       </c>
       <c r="Y28" t="inlineStr">
@@ -3743,7 +3743,7 @@
       </c>
       <c r="X29" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D457B50&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E803043B50&gt;</t>
         </is>
       </c>
       <c r="Y29" t="inlineStr">
@@ -3854,7 +3854,7 @@
       </c>
       <c r="X30" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D4546D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E8030406D0&gt;</t>
         </is>
       </c>
       <c r="Y30" t="inlineStr">
@@ -3965,7 +3965,7 @@
       </c>
       <c r="X31" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D457300&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E803043300&gt;</t>
         </is>
       </c>
       <c r="Y31" t="inlineStr">
@@ -4080,7 +4080,7 @@
       </c>
       <c r="X32" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D457A70&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E803043A70&gt;</t>
         </is>
       </c>
       <c r="Y32" t="inlineStr">
@@ -4195,7 +4195,7 @@
       </c>
       <c r="X33" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D454430&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E803040430&gt;</t>
         </is>
       </c>
       <c r="Y33" t="inlineStr">
@@ -4310,7 +4310,7 @@
       </c>
       <c r="X34" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D454580&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E803040580&gt;</t>
         </is>
       </c>
       <c r="Y34" t="inlineStr">
@@ -4421,7 +4421,7 @@
       </c>
       <c r="X35" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D4573E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E8030433E0&gt;</t>
         </is>
       </c>
       <c r="Y35" t="inlineStr">
@@ -4532,7 +4532,7 @@
       </c>
       <c r="X36" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D454820&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E803040820&gt;</t>
         </is>
       </c>
       <c r="Y36" t="inlineStr">
@@ -4643,7 +4643,7 @@
       </c>
       <c r="X37" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D455CB0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E803041CB0&gt;</t>
         </is>
       </c>
       <c r="Y37" t="inlineStr">
@@ -4754,7 +4754,7 @@
       </c>
       <c r="X38" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D4561F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E8030421F0&gt;</t>
         </is>
       </c>
       <c r="Y38" t="inlineStr">
@@ -4865,7 +4865,7 @@
       </c>
       <c r="X39" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D4515B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E80303D5B0&gt;</t>
         </is>
       </c>
       <c r="Y39" t="inlineStr">
@@ -4980,7 +4980,7 @@
       </c>
       <c r="X40" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D453060&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E80303F060&gt;</t>
         </is>
       </c>
       <c r="Y40" t="inlineStr">
@@ -5095,7 +5095,7 @@
       </c>
       <c r="X41" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D451E70&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E80303DE70&gt;</t>
         </is>
       </c>
       <c r="Y41" t="inlineStr">
@@ -5206,7 +5206,7 @@
       </c>
       <c r="X42" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D453E60&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E80303FE60&gt;</t>
         </is>
       </c>
       <c r="Y42" t="inlineStr">
@@ -5317,7 +5317,7 @@
       </c>
       <c r="X43" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D453220&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E80303F220&gt;</t>
         </is>
       </c>
       <c r="Y43" t="inlineStr">
@@ -5428,7 +5428,7 @@
       </c>
       <c r="X44" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D452490&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E80303E490&gt;</t>
         </is>
       </c>
       <c r="Y44" t="inlineStr">
@@ -5539,7 +5539,7 @@
       </c>
       <c r="X45" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D452F80&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E80303EF80&gt;</t>
         </is>
       </c>
       <c r="Y45" t="inlineStr">
@@ -5654,7 +5654,7 @@
       </c>
       <c r="X46" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D451620&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E80303D620&gt;</t>
         </is>
       </c>
       <c r="Y46" t="inlineStr">
@@ -5765,7 +5765,7 @@
       </c>
       <c r="X47" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D450D60&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E80303CD60&gt;</t>
         </is>
       </c>
       <c r="Y47" t="inlineStr">
@@ -5876,7 +5876,7 @@
       </c>
       <c r="X48" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D452730&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E80303E730&gt;</t>
         </is>
       </c>
       <c r="Y48" t="inlineStr">
@@ -5987,7 +5987,7 @@
       </c>
       <c r="X49" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D452C00&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E80303EC00&gt;</t>
         </is>
       </c>
       <c r="Y49" t="inlineStr">
@@ -6098,7 +6098,7 @@
       </c>
       <c r="X50" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D450F90&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E80303CF90&gt;</t>
         </is>
       </c>
       <c r="Y50" t="inlineStr">
@@ -6211,7 +6211,7 @@
       </c>
       <c r="X51" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D457AE0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E803043AE0&gt;</t>
         </is>
       </c>
       <c r="Y51" t="inlineStr">
@@ -6324,7 +6324,7 @@
       </c>
       <c r="X52" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D4551C0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E8030411C0&gt;</t>
         </is>
       </c>
       <c r="Y52" t="inlineStr">
@@ -6435,7 +6435,7 @@
       </c>
       <c r="X53" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D455BD0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E803041BD0&gt;</t>
         </is>
       </c>
       <c r="Y53" t="inlineStr">
@@ -6546,7 +6546,7 @@
       </c>
       <c r="X54" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D455310&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E803041310&gt;</t>
         </is>
       </c>
       <c r="Y54" t="inlineStr">
@@ -6657,7 +6657,7 @@
       </c>
       <c r="X55" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D451540&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E80303D540&gt;</t>
         </is>
       </c>
       <c r="Y55" t="inlineStr">
@@ -6768,7 +6768,7 @@
       </c>
       <c r="X56" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D451CB0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E80303DCB0&gt;</t>
         </is>
       </c>
       <c r="Y56" t="inlineStr">
@@ -6879,7 +6879,7 @@
       </c>
       <c r="X57" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D453AE0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E80303FAE0&gt;</t>
         </is>
       </c>
       <c r="Y57" t="inlineStr">
@@ -6990,7 +6990,7 @@
       </c>
       <c r="X58" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3EAB90&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F92AB90&gt;</t>
         </is>
       </c>
       <c r="Y58" t="inlineStr">
@@ -7101,7 +7101,7 @@
       </c>
       <c r="X59" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3E9E00&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F929E00&gt;</t>
         </is>
       </c>
       <c r="Y59" t="inlineStr">
@@ -7212,7 +7212,7 @@
       </c>
       <c r="X60" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3E93F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F9293F0&gt;</t>
         </is>
       </c>
       <c r="Y60" t="inlineStr">
@@ -7323,7 +7323,7 @@
       </c>
       <c r="X61" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3EA880&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F92A880&gt;</t>
         </is>
       </c>
       <c r="Y61" t="inlineStr">
@@ -7434,7 +7434,7 @@
       </c>
       <c r="X62" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3E8F90&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F928F90&gt;</t>
         </is>
       </c>
       <c r="Y62" t="inlineStr">
@@ -7541,7 +7541,7 @@
       </c>
       <c r="X63" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3E9070&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F929070&gt;</t>
         </is>
       </c>
       <c r="Y63" t="inlineStr">
@@ -7652,7 +7652,7 @@
       </c>
       <c r="X64" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3EA420&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F92A420&gt;</t>
         </is>
       </c>
       <c r="Y64" t="inlineStr">
@@ -7759,7 +7759,7 @@
       </c>
       <c r="X65" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3EBD10&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F92BD10&gt;</t>
         </is>
       </c>
       <c r="Y65" t="inlineStr">
@@ -7866,7 +7866,7 @@
       </c>
       <c r="X66" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3E9620&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F929620&gt;</t>
         </is>
       </c>
       <c r="Y66" t="inlineStr">
@@ -7973,7 +7973,7 @@
       </c>
       <c r="X67" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3E9770&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F929770&gt;</t>
         </is>
       </c>
       <c r="Y67" t="inlineStr">
@@ -8080,7 +8080,7 @@
       </c>
       <c r="X68" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3EA490&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F92A490&gt;</t>
         </is>
       </c>
       <c r="Y68" t="inlineStr">
@@ -8187,7 +8187,7 @@
       </c>
       <c r="X69" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3E99A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F9299A0&gt;</t>
         </is>
       </c>
       <c r="Y69" t="inlineStr">
@@ -8298,7 +8298,7 @@
       </c>
       <c r="X70" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3EB680&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F92B680&gt;</t>
         </is>
       </c>
       <c r="Y70" t="inlineStr">
@@ -8409,7 +8409,7 @@
       </c>
       <c r="X71" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3EA030&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F92A030&gt;</t>
         </is>
       </c>
       <c r="Y71" t="inlineStr">
@@ -8520,7 +8520,7 @@
       </c>
       <c r="X72" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D460AC0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802F77AE0&gt;</t>
         </is>
       </c>
       <c r="Y72" t="inlineStr">
@@ -8627,7 +8627,7 @@
       </c>
       <c r="X73" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D4603C0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802F75C40&gt;</t>
         </is>
       </c>
       <c r="Y73" t="inlineStr">
@@ -8734,7 +8734,7 @@
       </c>
       <c r="X74" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D461070&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802F76490&gt;</t>
         </is>
       </c>
       <c r="Y74" t="inlineStr">
@@ -8845,7 +8845,7 @@
       </c>
       <c r="X75" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D462EA0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802F76C70&gt;</t>
         </is>
       </c>
       <c r="Y75" t="inlineStr">
@@ -8952,7 +8952,7 @@
       </c>
       <c r="X76" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D463370&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802F751C0&gt;</t>
         </is>
       </c>
       <c r="Y76" t="inlineStr">
@@ -9063,7 +9063,7 @@
       </c>
       <c r="X77" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D461000&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802F76B20&gt;</t>
         </is>
       </c>
       <c r="Y77" t="inlineStr">
@@ -9170,7 +9170,7 @@
       </c>
       <c r="X78" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D460F90&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802F76340&gt;</t>
         </is>
       </c>
       <c r="Y78" t="inlineStr">
@@ -9281,7 +9281,7 @@
       </c>
       <c r="X79" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D461E00&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802F778B0&gt;</t>
         </is>
       </c>
       <c r="Y79" t="inlineStr">
@@ -9388,7 +9388,7 @@
       </c>
       <c r="X80" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D4604A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802F75E70&gt;</t>
         </is>
       </c>
       <c r="Y80" t="inlineStr">
@@ -9499,7 +9499,7 @@
       </c>
       <c r="X81" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D4636F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802F77DF0&gt;</t>
         </is>
       </c>
       <c r="Y81" t="inlineStr">
@@ -9610,7 +9610,7 @@
       </c>
       <c r="X82" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D461D20&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802F77D10&gt;</t>
         </is>
       </c>
       <c r="Y82" t="inlineStr">
@@ -9717,7 +9717,7 @@
       </c>
       <c r="X83" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D461AF0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802F774C0&gt;</t>
         </is>
       </c>
       <c r="Y83" t="inlineStr">
@@ -9828,7 +9828,7 @@
       </c>
       <c r="X84" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D460BA0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802F74350&gt;</t>
         </is>
       </c>
       <c r="Y84" t="inlineStr">
@@ -9939,7 +9939,7 @@
       </c>
       <c r="X85" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D460A50&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802F77E60&gt;</t>
         </is>
       </c>
       <c r="Y85" t="inlineStr">
@@ -10050,7 +10050,7 @@
       </c>
       <c r="X86" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D461A80&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802F77990&gt;</t>
         </is>
       </c>
       <c r="Y86" t="inlineStr">
@@ -10161,7 +10161,7 @@
       </c>
       <c r="X87" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D463E60&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802F77140&gt;</t>
         </is>
       </c>
       <c r="Y87" t="inlineStr">
@@ -10268,7 +10268,7 @@
       </c>
       <c r="X88" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D463450&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802F75620&gt;</t>
         </is>
       </c>
       <c r="Y88" t="inlineStr">
@@ -10379,7 +10379,7 @@
       </c>
       <c r="X89" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D460CF0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802F74970&gt;</t>
         </is>
       </c>
       <c r="Y89" t="inlineStr">
@@ -10490,7 +10490,7 @@
       </c>
       <c r="X90" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D4622D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802F77530&gt;</t>
         </is>
       </c>
       <c r="Y90" t="inlineStr">
@@ -10601,7 +10601,7 @@
       </c>
       <c r="X91" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D460200&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802F77D80&gt;</t>
         </is>
       </c>
       <c r="Y91" t="inlineStr">
@@ -10712,7 +10712,7 @@
       </c>
       <c r="X92" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D463B50&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802F758C0&gt;</t>
         </is>
       </c>
       <c r="Y92" t="inlineStr">
@@ -10823,7 +10823,7 @@
       </c>
       <c r="X93" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D460970&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802F75E00&gt;</t>
         </is>
       </c>
       <c r="Y93" t="inlineStr">
@@ -10934,7 +10934,7 @@
       </c>
       <c r="X94" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D462420&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802F77A70&gt;</t>
         </is>
       </c>
       <c r="Y94" t="inlineStr">
@@ -11045,7 +11045,7 @@
       </c>
       <c r="X95" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D460350&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802F76500&gt;</t>
         </is>
       </c>
       <c r="Y95" t="inlineStr">
@@ -11156,7 +11156,7 @@
       </c>
       <c r="X96" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D463610&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802F773E0&gt;</t>
         </is>
       </c>
       <c r="Y96" t="inlineStr">
@@ -11263,7 +11263,7 @@
       </c>
       <c r="X97" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D460120&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802F77A00&gt;</t>
         </is>
       </c>
       <c r="Y97" t="inlineStr">
@@ -11374,7 +11374,7 @@
       </c>
       <c r="X98" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D462D50&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802F76F80&gt;</t>
         </is>
       </c>
       <c r="Y98" t="inlineStr">
@@ -11485,7 +11485,7 @@
       </c>
       <c r="X99" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D4619A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802F745F0&gt;</t>
         </is>
       </c>
       <c r="Y99" t="inlineStr">
@@ -11592,7 +11592,7 @@
       </c>
       <c r="X100" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D4602E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802F76CE0&gt;</t>
         </is>
       </c>
       <c r="Y100" t="inlineStr">
@@ -11703,7 +11703,7 @@
       </c>
       <c r="X101" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3F3C30&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802F77290&gt;</t>
         </is>
       </c>
       <c r="Y101" t="inlineStr">
@@ -11814,7 +11814,7 @@
       </c>
       <c r="X102" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3F23B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802F77760&gt;</t>
         </is>
       </c>
       <c r="Y102" t="inlineStr">
@@ -11925,7 +11925,7 @@
       </c>
       <c r="X103" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3F2A40&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802F74A50&gt;</t>
         </is>
       </c>
       <c r="Y103" t="inlineStr">
@@ -12036,7 +12036,7 @@
       </c>
       <c r="X104" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3F1540&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802F743C0&gt;</t>
         </is>
       </c>
       <c r="Y104" t="inlineStr">
@@ -12147,7 +12147,7 @@
       </c>
       <c r="X105" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3F2B20&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802F75A80&gt;</t>
         </is>
       </c>
       <c r="Y105" t="inlineStr">
@@ -12254,7 +12254,7 @@
       </c>
       <c r="X106" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3F1CB0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802F74D60&gt;</t>
         </is>
       </c>
       <c r="Y106" t="inlineStr">
@@ -12361,7 +12361,7 @@
       </c>
       <c r="X107" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3F2D50&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802F75D20&gt;</t>
         </is>
       </c>
       <c r="Y107" t="inlineStr">
@@ -12472,7 +12472,7 @@
       </c>
       <c r="X108" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3F1460&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802F74820&gt;</t>
         </is>
       </c>
       <c r="Y108" t="inlineStr">
@@ -12583,7 +12583,7 @@
       </c>
       <c r="X109" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3F27A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802F76260&gt;</t>
         </is>
       </c>
       <c r="Y109" t="inlineStr">
@@ -12696,7 +12696,7 @@
       </c>
       <c r="X110" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3F1690&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E80304D3F0&gt;</t>
         </is>
       </c>
       <c r="Y110" t="inlineStr">
@@ -12807,7 +12807,7 @@
       </c>
       <c r="X111" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3F3220&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E80304CF90&gt;</t>
         </is>
       </c>
       <c r="Y111" t="inlineStr">
@@ -12918,7 +12918,7 @@
       </c>
       <c r="X112" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3F15B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E80304CE40&gt;</t>
         </is>
       </c>
       <c r="Y112" t="inlineStr">
@@ -13029,7 +13029,7 @@
       </c>
       <c r="X113" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3817E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E80304CCF0&gt;</t>
         </is>
       </c>
       <c r="Y113" t="inlineStr">
@@ -13136,7 +13136,7 @@
       </c>
       <c r="X114" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D382340&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E80304CC10&gt;</t>
         </is>
       </c>
       <c r="Y114" t="inlineStr">
@@ -13247,7 +13247,7 @@
       </c>
       <c r="X115" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D381E00&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E80304C9E0&gt;</t>
         </is>
       </c>
       <c r="Y115" t="inlineStr">
@@ -13358,7 +13358,7 @@
       </c>
       <c r="X116" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3818C0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E80304C890&gt;</t>
         </is>
       </c>
       <c r="Y116" t="inlineStr">
@@ -13465,7 +13465,7 @@
       </c>
       <c r="X117" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D381C40&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E80304C7B0&gt;</t>
         </is>
       </c>
       <c r="Y117" t="inlineStr">
@@ -13576,7 +13576,7 @@
       </c>
       <c r="X118" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D382490&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E80304C510&gt;</t>
         </is>
       </c>
       <c r="Y118" t="inlineStr">
@@ -13689,7 +13689,7 @@
       </c>
       <c r="X119" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3822D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E80304C0B0&gt;</t>
         </is>
       </c>
       <c r="Y119" t="inlineStr">
@@ -13800,7 +13800,7 @@
       </c>
       <c r="X120" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D383D10&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E80304F370&gt;</t>
         </is>
       </c>
       <c r="Y120" t="inlineStr">
@@ -13913,7 +13913,7 @@
       </c>
       <c r="X121" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D383F40&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E80304C900&gt;</t>
         </is>
       </c>
       <c r="Y121" t="inlineStr">
@@ -14026,7 +14026,7 @@
       </c>
       <c r="X122" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D383ED0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E80304E9D0&gt;</t>
         </is>
       </c>
       <c r="Y122" t="inlineStr">
@@ -14139,7 +14139,7 @@
       </c>
       <c r="X123" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D382260&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E80304DA80&gt;</t>
         </is>
       </c>
       <c r="Y123" t="inlineStr">
